--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -34,7 +34,7 @@
     <t>CONCEPTO</t>
   </si>
   <si>
-    <t>ESTADO FACTURA</t>
+    <t>CONDICION FACTURA</t>
   </si>
   <si>
     <t>PROVEEDOR</t>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>FECHA</t>
   </si>
@@ -52,10 +52,31 @@
     <t>OT NRO</t>
   </si>
   <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>PRUEBA 1</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>proveedor 1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
     <t>18/10/2018</t>
-  </si>
-  <si>
-    <t>PRUEBA 1</t>
   </si>
   <si>
     <t>NO_FACTURADO</t>
@@ -125,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -177,19 +198,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>7727.27</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>4047.62</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>358000</v>
+        <v>85056</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -207,10 +228,10 @@
         <v>18</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -218,19 +239,19 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0</v>
+        <v>145000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>13181.82</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>6904.76</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>150000</v>
+        <v>165000</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -239,18 +260,182 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>13181.82</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>6904.76</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>165000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>13181.82</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>6904.76</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>165000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>358000</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>123</v>
       </c>
     </row>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,51 +11,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>FECHA</t>
   </si>
   <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>OBRA</t>
-  </si>
-  <si>
-    <t>PAGO</t>
-  </si>
-  <si>
-    <t>FACTURA NRO</t>
-  </si>
-  <si>
-    <t>FACTURA CONDICION</t>
-  </si>
-  <si>
     <t>MONTO</t>
   </si>
   <si>
-    <t>MONTO SIN IVA</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>RETENCION</t>
-  </si>
-  <si>
-    <t>PORCENTAJE</t>
-  </si>
-  <si>
-    <t>TOTAL FACTURADO</t>
+    <t>EXENTAS</t>
+  </si>
+  <si>
+    <t>IVA 10%</t>
+  </si>
+  <si>
+    <t>IVA 5%</t>
+  </si>
+  <si>
+    <t>GASTO REAL</t>
+  </si>
+  <si>
+    <t>CONCEPTO</t>
+  </si>
+  <si>
+    <t>CONDICION FACTURA</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>NRO FACTURA</t>
+  </si>
+  <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>OT NRO</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>PRUEBA 1</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>proveedor luis</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>proveedor 1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>CONTADO</t>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>NO_FACTURADO</t>
+  </si>
+  <si>
+    <t>sr proveedor</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>CARLOS MALDONADO</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>proveedor 12</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>JOSE OSORIO</t>
   </si>
 </sst>
 </file>
@@ -101,13 +158,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -144,43 +201,295 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
+      <c r="B2" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>9090.91</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>85000</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>7727.27</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>4047.62</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>85056</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>13181.82</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>165000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>13181.82</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>6904.76</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>165000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>13181.82</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>6904.76</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>165000</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>358000</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FECHA</t>
   </si>
@@ -49,13 +49,22 @@
     <t>TOTAL FACTURADO</t>
   </si>
   <si>
-    <t>-</t>
+    <t>01/11/2018</t>
   </si>
   <si>
-    <t/>
+    <t>Luis Enrique</t>
   </si>
   <si>
-    <t>CONTADO</t>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>ANULADA</t>
   </si>
 </sst>
 </file>
@@ -153,34 +162,34 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>123124</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>2324324</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0</v>
+        <v>123123</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0</v>
+        <v>143453</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,60 +11,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>FECHA</t>
   </si>
   <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>OBRA</t>
-  </si>
-  <si>
-    <t>PAGO</t>
-  </si>
-  <si>
-    <t>FACTURA NRO</t>
-  </si>
-  <si>
-    <t>FACTURA CONDICION</t>
-  </si>
-  <si>
     <t>MONTO</t>
   </si>
   <si>
-    <t>MONTO SIN IVA</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>RETENCION</t>
-  </si>
-  <si>
-    <t>PORCENTAJE</t>
-  </si>
-  <si>
-    <t>TOTAL FACTURADO</t>
-  </si>
-  <si>
-    <t>01/11/2018</t>
-  </si>
-  <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>Casa Particular</t>
+    <t>EXENTAS</t>
+  </si>
+  <si>
+    <t>IVA 10%</t>
+  </si>
+  <si>
+    <t>IVA 5%</t>
+  </si>
+  <si>
+    <t>GASTO REAL</t>
+  </si>
+  <si>
+    <t>CONCEPTO</t>
+  </si>
+  <si>
+    <t>CONDICION FACTURA</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>NRO FACTURA</t>
+  </si>
+  <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>OT NRO</t>
+  </si>
+  <si>
+    <t>IMPUTADO</t>
+  </si>
+  <si>
+    <t>12/11/2018</t>
+  </si>
+  <si>
+    <t>PRUEBA 1</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>proveedor 1</t>
+  </si>
+  <si>
+    <t>45629</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>ccamion</t>
+  </si>
+  <si>
+    <t>09/11/2018</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>proveedor luis</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>123123</t>
   </si>
   <si>
-    <t>ANULADA</t>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>NO_FACTURADO</t>
+  </si>
+  <si>
+    <t>sr proveedor</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>CARLOS MALDONADO</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>proveedor 12</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>JOSE OSORIO</t>
   </si>
 </sst>
 </file>
@@ -110,13 +176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -153,43 +219,319 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="1" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>892300</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2142.86</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>123124</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>2324324</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>123123</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2476.19</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>9090.91</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>85000</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7727.27</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>4047.62</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>85056</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>13181.82</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>165000</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>358000</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>143453</v>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>FECHA</t>
   </si>
@@ -55,82 +55,79 @@
     <t>IMPUTADO</t>
   </si>
   <si>
-    <t>12/11/2018</t>
-  </si>
-  <si>
-    <t>PRUEBA 1</t>
+    <t>18/12/2018</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm &amp;#x2F;AP500</t>
   </si>
   <si>
     <t>CONTADO</t>
   </si>
   <si>
+    <t>sr proveedor</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ccamion</t>
+  </si>
+  <si>
+    <t>17/12/2018</t>
+  </si>
+  <si>
+    <t>varilla conf 12" " / AP500</t>
+  </si>
+  <si>
     <t>proveedor 1</t>
   </si>
   <si>
-    <t>45629</t>
+    <t>001-002-0013023</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t>asdafsd sdf</t>
+  </si>
+  <si>
+    <t>13/12/2018</t>
+  </si>
+  <si>
+    <t>Ferropar SA</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>12/12/2018</t>
+  </si>
+  <si>
+    <t>NOTA_CREDITO</t>
+  </si>
+  <si>
+    <t>proveedor 12</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
   </si>
   <si>
     <t>asdasd</t>
   </si>
   <si>
-    <t>ccamion</t>
-  </si>
-  <si>
-    <t>09/11/2018</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>01/10/2018</t>
-  </si>
-  <si>
-    <t>proveedor luis</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>encargado test</t>
-  </si>
-  <si>
-    <t>06/11/2018</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>18/10/2018</t>
-  </si>
-  <si>
-    <t>NO_FACTURADO</t>
-  </si>
-  <si>
-    <t>sr proveedor</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>CARLOS MALDONADO</t>
-  </si>
-  <si>
-    <t>10/10/2018</t>
-  </si>
-  <si>
-    <t>proveedor 12</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>JOSE OSORIO</t>
+    <t>varilla csdfsfd</t>
   </si>
 </sst>
 </file>
@@ -176,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -231,19 +228,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45000</v>
+        <v>150000</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>892300</v>
+        <v>583000</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>13636.36</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2142.86</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45000</v>
+        <v>733000</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -261,10 +258,10 @@
         <v>19</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
@@ -275,107 +272,107 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>52000</v>
+        <v>180000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>16363.64</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2476.19</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>14000000</v>
+        <v>250000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>9090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>150000</v>
+        <v>818922</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>85000</v>
+        <v>250000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>56</v>
+        <v>450000</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7727.27</v>
+        <v>22727.27</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4047.62</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>85056</v>
+        <v>700000</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -387,71 +384,71 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>145000</v>
+        <v>-150000</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>13181.82</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>165000</v>
+        <v>-150000</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0</v>
+        <v>6243370</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -463,39 +460,39 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>358000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0</v>
+        <v>256228</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
@@ -507,31 +504,339 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>624470</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>56770</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>740000</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>740000</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="B12" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="2" t="n">
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>23</v>
+      <c r="M12" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>FECHA</t>
   </si>
@@ -55,6 +55,24 @@
     <t>IMPUTADO</t>
   </si>
   <si>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm /AP500</t>
+  </si>
+  <si>
+    <t>RECIBO</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>001-002-0013023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>18/12/2018</t>
   </si>
   <si>
@@ -70,9 +88,6 @@
     <t>123</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ccamion</t>
   </si>
   <si>
@@ -85,9 +100,6 @@
     <t>proveedor 1</t>
   </si>
   <si>
-    <t>001-002-0013023</t>
-  </si>
-  <si>
     <t>encargado test</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
   </si>
   <si>
     <t>varilla csdfsfd</t>
+  </si>
+  <si>
+    <t>tst</t>
   </si>
 </sst>
 </file>
@@ -173,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -228,19 +243,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>733000</v>
+        <v>2859000</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -255,42 +270,42 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>583000</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>13636.36</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>733000</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>180000</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>16363.64</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>180000</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -299,71 +314,71 @@
         <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>250000</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>568922</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>22727.27</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>818922</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>450000</v>
+        <v>568922</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>22727.27</v>
@@ -372,83 +387,83 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>700000</v>
+        <v>818922</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>-150000</v>
+        <v>250000</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-150000</v>
+        <v>700000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>6243370</v>
+        <v>-150000</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -460,16 +475,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0</v>
+        <v>-150000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
@@ -481,45 +496,45 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6243370</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>256228</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>1</v>
@@ -533,37 +548,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>256228</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>624470</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>56770</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>1</v>
@@ -577,51 +592,51 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>250000</v>
+        <v>624470</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>22727.27</v>
+        <v>56770</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>250000</v>
@@ -639,19 +654,19 @@
         <v>250000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>3</v>
@@ -660,56 +675,56 @@
         <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>78000</v>
@@ -727,19 +742,19 @@
         <v>78000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>5</v>
@@ -748,12 +763,12 @@
         <v>56</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>78000</v>
@@ -771,19 +786,19 @@
         <v>78000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>5</v>
@@ -792,12 +807,12 @@
         <v>56</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>78000</v>
@@ -815,19 +830,19 @@
         <v>78000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L15" s="2" t="n">
         <v>5</v>
@@ -836,7 +851,95 @@
         <v>56</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>26500</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -142,7 +142,7 @@
     <t>varilla csdfsfd</t>
   </si>
   <si>
-    <t>tst</t>
+    <t>tst 1</t>
   </si>
 </sst>
 </file>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>26500</v>
+        <v>265000</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>19</v>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>FECHA</t>
   </si>
@@ -55,9 +55,102 @@
     <t>IMPUTADO</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>varilla csdfsfd</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>sr proveedor</t>
+  </si>
+  <si>
+    <t>001-002-0013023</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t>ccamion</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tst 1</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm &amp;#x2F;AP500</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>Ferropar SA</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>12/12/2018</t>
+  </si>
+  <si>
+    <t>cordon marron</t>
+  </si>
+  <si>
+    <t>NOTA_CREDITO</t>
+  </si>
+  <si>
+    <t>Electropar SA.</t>
+  </si>
+  <si>
+    <t>Oscar G</t>
+  </si>
+  <si>
+    <t>proveedor 12</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>13/12/2018</t>
+  </si>
+  <si>
+    <t>17/12/2018</t>
+  </si>
+  <si>
+    <t>varilla conf 12" " / AP500</t>
+  </si>
+  <si>
+    <t>proveedor 1</t>
+  </si>
+  <si>
+    <t>asdafsd sdf</t>
+  </si>
+  <si>
+    <t>18/12/2018</t>
+  </si>
+  <si>
     <t>23/01/2019</t>
   </si>
   <si>
+    <t>123345</t>
+  </si>
+  <si>
+    <t>PRUEBA 1</t>
+  </si>
+  <si>
     <t>varilla conf 12mm /AP500</t>
   </si>
   <si>
@@ -65,84 +158,6 @@
   </si>
   <si>
     <t>TEST</t>
-  </si>
-  <si>
-    <t>001-002-0013023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>18/12/2018</t>
-  </si>
-  <si>
-    <t>varilla conf 12mm &amp;#x2F;AP500</t>
-  </si>
-  <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
-    <t>sr proveedor</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>ccamion</t>
-  </si>
-  <si>
-    <t>17/12/2018</t>
-  </si>
-  <si>
-    <t>varilla conf 12" " / AP500</t>
-  </si>
-  <si>
-    <t>proveedor 1</t>
-  </si>
-  <si>
-    <t>encargado test</t>
-  </si>
-  <si>
-    <t>asdafsd sdf</t>
-  </si>
-  <si>
-    <t>13/12/2018</t>
-  </si>
-  <si>
-    <t>Ferropar SA</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>12/12/2018</t>
-  </si>
-  <si>
-    <t>NOTA_CREDITO</t>
-  </si>
-  <si>
-    <t>proveedor 12</t>
-  </si>
-  <si>
-    <t>05/12/2018</t>
-  </si>
-  <si>
-    <t>CREDITO</t>
-  </si>
-  <si>
-    <t>03/12/2018</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>varilla csdfsfd</t>
-  </si>
-  <si>
-    <t>tst 1</t>
   </si>
 </sst>
 </file>
@@ -188,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -243,19 +258,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2859000</v>
+        <v>78000</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -270,288 +285,288 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>150000</v>
+        <v>78000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>13636.36</v>
+        <v>7090.91</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>733000</v>
+        <v>78000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>56</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>180000</v>
+        <v>78000</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>16363.64</v>
+        <v>7090.91</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>180000</v>
+        <v>78000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>250000</v>
+        <v>78000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>22727.27</v>
+        <v>7090.91</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>818922</v>
+        <v>78000</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L5" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>22727.27</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>700000</v>
+        <v>265000</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L6" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>-150000</v>
+        <v>250000</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-150000</v>
+        <v>250000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>6243370</v>
+        <v>250000</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>256228</v>
+        <v>6243370</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
@@ -566,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>1</v>
@@ -587,21 +602,21 @@
         <v>227</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>624470</v>
+        <v>256228</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>56770</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
@@ -610,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>1</v>
@@ -631,62 +646,62 @@
         <v>227</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>250000</v>
+        <v>624470</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>22727.27</v>
+        <v>56770</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>740000</v>
+        <v>450000</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>22727.27</v>
@@ -695,148 +710,148 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>250000</v>
+        <v>700000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>78000</v>
+        <v>-107568</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>78000</v>
+        <v>-107568</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>78000</v>
+        <v>-150000</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>78000</v>
+        <v>-150000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>78000</v>
+        <v>818922</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>18</v>
@@ -845,101 +860,233 @@
         <v>29</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>7090.91</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>265000</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>583000</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>13636.36</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>733000</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>19</v>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>24950000</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>2859000</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ITEM</t>
   </si>
@@ -64,12 +64,39 @@
     <t>1</t>
   </si>
   <si>
+    <t>estacionamiento y fotocopias</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>sin nombre</t>
+  </si>
+  <si>
+    <t>oscar gonzalez</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>oscartest</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>varilla csdfsfd</t>
   </si>
   <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
     <t>sr proveedor</t>
   </si>
   <si>
@@ -85,25 +112,22 @@
     <t>null</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t/>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>tst 1</t>
   </si>
   <si>
-    <t>6</t>
+    <t>10</t>
   </si>
   <si>
     <t>varilla conf 12mm &amp;#x2F;AP500</t>
@@ -112,10 +136,10 @@
     <t>asdasd</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>CREDITO</t>
@@ -127,16 +151,16 @@
     <t>Cristina</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>cordon marron</t>
@@ -151,7 +175,7 @@
     <t>Oscar G</t>
   </si>
   <si>
-    <t>13</t>
+    <t>17</t>
   </si>
   <si>
     <t>proveedor 12</t>
@@ -160,10 +184,10 @@
     <t>123</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>varilla conf 12" " / AP500</t>
@@ -175,13 +199,13 @@
     <t>asdafsd sdf</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>123345</t>
@@ -190,7 +214,7 @@
     <t>PRUEBA 1</t>
   </si>
   <si>
-    <t>19</t>
+    <t>23</t>
   </si>
   <si>
     <t>varilla conf 12mm /AP500</t>
@@ -200,6 +224,9 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -247,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -308,22 +335,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>43050</v>
+        <v>25569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -335,45 +362,45 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
-        <v>43050</v>
+        <v>25569</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -385,45 +412,45 @@
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M3" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
-        <v>43050</v>
+        <v>25569</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -435,45 +462,45 @@
         <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M4" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
-        <v>43050</v>
+        <v>25569</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -485,48 +512,48 @@
         <v>19</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>43050</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>265000</v>
+        <v>78000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
@@ -535,48 +562,48 @@
         <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
-        <v>43437</v>
+        <v>43050</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>250000</v>
+        <v>78000</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>22727.27</v>
+        <v>7090.91</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>250000</v>
+        <v>78000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -585,48 +612,48 @@
         <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
-        <v>43437</v>
+        <v>43050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>250000</v>
+        <v>78000</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>22727.27</v>
+        <v>7090.91</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>250000</v>
+        <v>78000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>18</v>
@@ -635,83 +662,83 @@
         <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
-        <v>43439</v>
+        <v>43050</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>6243370</v>
+        <v>78000</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>227</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
-        <v>43439</v>
+        <v>43050</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>256228</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
@@ -723,98 +750,98 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>265000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43437</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3">
-        <v>43439</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>624470</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>56770</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>227</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>43446</v>
+        <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>450000</v>
+        <v>740000</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>22727.27</v>
@@ -823,45 +850,45 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>700000</v>
+        <v>250000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3">
-        <v>43446</v>
+        <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-107568</v>
+        <v>6243370</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
@@ -873,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>-107568</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>43</v>
@@ -885,7 +912,7 @@
         <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>45</v>
@@ -894,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -908,10 +935,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="3">
-        <v>43446</v>
+        <v>43439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>-150000</v>
+        <v>256228</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
@@ -923,334 +950,584 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3">
-        <v>43447</v>
+        <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>250000</v>
+        <v>624470</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>22727.27</v>
+        <v>56770</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>818922</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3">
-        <v>43451</v>
+        <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>16363.64</v>
+        <v>22727.27</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>180000</v>
+        <v>700000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3">
-        <v>43451</v>
+        <v>43446</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>180000</v>
+        <v>-107568</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>180000</v>
+        <v>-107568</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3">
-        <v>43452</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>150000</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>583000</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>13636.36</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>733000</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3">
-        <v>43488</v>
+        <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>24950000</v>
+        <v>818922</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3">
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43452</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>583000</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>13636.36</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>733000</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3">
         <v>43488</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="n">
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>24950000</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43488</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>2859000</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="2" t="n">
+      <c r="H24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>23</v>
+      <c r="N24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43498</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ITEM</t>
   </si>
@@ -208,13 +208,25 @@
     <t>22</t>
   </si>
   <si>
+    <t>estacionamiento</t>
+  </si>
+  <si>
+    <t>S_F</t>
+  </si>
+  <si>
+    <t>Jose lopez</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>123345</t>
   </si>
   <si>
     <t>PRUEBA 1</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>varilla conf 12mm /AP500</t>
@@ -226,7 +238,16 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>000123</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
   </si>
 </sst>
 </file>
@@ -274,7 +295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1385,7 +1406,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="3">
-        <v>43488</v>
+        <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
@@ -1400,39 +1421,39 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>24950000</v>
+        <v>10000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
         <v>43488</v>
@@ -1450,25 +1471,25 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>2859000</v>
+        <v>24950000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>0</v>
@@ -1485,48 +1506,148 @@
         <v>71</v>
       </c>
       <c r="B25" s="3">
+        <v>43488</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>2859000</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3">
         <v>43498</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="1" t="s">
+      <c r="K26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43517</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>ITEM</t>
   </si>
@@ -61,6 +61,9 @@
     <t>ORIGEN PAGO</t>
   </si>
   <si>
+    <t>TIPO</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t/>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -109,9 +115,6 @@
     <t>ccamion</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -242,6 +245,39 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>54767</t>
+  </si>
+  <si>
+    <t>CONF</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>cambios</t>
+  </si>
+  <si>
+    <t>Luis Oviedo</t>
+  </si>
+  <si>
+    <t>caja 1</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>000123</t>
@@ -295,13 +331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -350,10 +386,13 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>25569</v>
@@ -374,19 +413,19 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
@@ -395,15 +434,18 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>25569</v>
@@ -424,19 +466,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -445,15 +487,18 @@
         <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>25569</v>
@@ -474,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -495,15 +540,18 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>25569</v>
@@ -524,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
@@ -545,15 +593,18 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>43050</v>
@@ -574,19 +625,19 @@
         <v>78000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>5</v>
@@ -595,15 +646,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>43050</v>
@@ -624,19 +678,19 @@
         <v>78000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>5</v>
@@ -645,15 +699,18 @@
         <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>43050</v>
@@ -674,19 +731,19 @@
         <v>78000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>5</v>
@@ -695,15 +752,18 @@
         <v>56</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3">
         <v>43050</v>
@@ -724,19 +784,19 @@
         <v>78000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>5</v>
@@ -745,15 +805,18 @@
         <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3">
         <v>43050</v>
@@ -774,19 +837,19 @@
         <v>265000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -795,15 +858,18 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3">
         <v>43437</v>
@@ -824,19 +890,19 @@
         <v>250000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>3</v>
@@ -845,15 +911,18 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>43437</v>
@@ -874,19 +943,19 @@
         <v>250000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>3</v>
@@ -895,15 +964,18 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3">
         <v>43439</v>
@@ -924,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
@@ -945,15 +1017,18 @@
         <v>227</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3">
         <v>43439</v>
@@ -974,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
@@ -995,15 +1070,18 @@
         <v>227</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3">
         <v>43439</v>
@@ -1024,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>1</v>
@@ -1045,15 +1123,18 @@
         <v>227</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3">
         <v>43446</v>
@@ -1074,19 +1155,19 @@
         <v>700000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>3</v>
@@ -1095,15 +1176,18 @@
         <v>78</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3">
         <v>43446</v>
@@ -1124,19 +1208,19 @@
         <v>-107568</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>1</v>
@@ -1145,15 +1229,18 @@
         <v>12</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3">
         <v>43446</v>
@@ -1174,19 +1261,19 @@
         <v>-150000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
@@ -1195,15 +1282,18 @@
         <v>32</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3">
         <v>43447</v>
@@ -1224,19 +1314,19 @@
         <v>818922</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>3</v>
@@ -1245,15 +1335,18 @@
         <v>23</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3">
         <v>43451</v>
@@ -1274,19 +1367,19 @@
         <v>180000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>0</v>
@@ -1295,15 +1388,18 @@
         <v>123</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3">
         <v>43451</v>
@@ -1324,19 +1420,19 @@
         <v>180000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -1345,15 +1441,18 @@
         <v>123</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3">
         <v>43452</v>
@@ -1374,19 +1473,19 @@
         <v>733000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>1</v>
@@ -1395,15 +1494,18 @@
         <v>56</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3">
         <v>43474</v>
@@ -1424,19 +1526,19 @@
         <v>10000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>1</v>
@@ -1445,15 +1547,18 @@
         <v>108</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3">
         <v>43488</v>
@@ -1474,19 +1579,19 @@
         <v>24950000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0</v>
@@ -1495,15 +1600,18 @@
         <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3">
         <v>43488</v>
@@ -1524,19 +1632,19 @@
         <v>2859000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>1</v>
@@ -1545,15 +1653,18 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3">
         <v>43498</v>
@@ -1574,81 +1685,352 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43501</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43501</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43502</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>8750500</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>416690.48</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>8765500</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="J29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43507</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>909.09</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43507</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>35900</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="3">
         <v>43517</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="n">
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
         <v>150000</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M27" s="2" t="n">
+      <c r="H32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="N32" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>21</v>
+      <c r="O32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>ITEM</t>
   </si>
@@ -223,10 +223,16 @@
     <t>23</t>
   </si>
   <si>
+    <t>varilla conf 12mm &amp;amp;#x2F;AP500</t>
+  </si>
+  <si>
     <t>123345</t>
   </si>
   <si>
     <t>PRUEBA 1</t>
+  </si>
+  <si>
+    <t>NO_CONF</t>
   </si>
   <si>
     <t>24</t>
@@ -1579,7 +1585,7 @@
         <v>24950000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>19</v>
@@ -1588,30 +1594,30 @@
         <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0</v>
+        <v>4589</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
         <v>43488</v>
@@ -1632,19 +1638,19 @@
         <v>2859000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>1</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3">
         <v>43498</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3">
         <v>43501</v>
@@ -1762,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>23</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3">
         <v>43501</v>
@@ -1815,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>23</v>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3">
         <v>43502</v>
@@ -1853,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>27</v>
@@ -1868,15 +1874,15 @@
         <v>62</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" s="3">
         <v>43507</v>
@@ -1897,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>44</v>
@@ -1921,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>23</v>
@@ -1929,7 +1935,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31" s="3">
         <v>43507</v>
@@ -1950,7 +1956,7 @@
         <v>50000</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>19</v>
@@ -1959,10 +1965,10 @@
         <v>53</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>0</v>
@@ -1974,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>22</v>
@@ -1982,7 +1988,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" s="3">
         <v>43517</v>
@@ -2012,10 +2018,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>1</v>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>ITEM</t>
   </si>
@@ -67,184 +67,190 @@
     <t>1</t>
   </si>
   <si>
+    <t>varilla csdfsfd</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>sr proveedor</t>
+  </si>
+  <si>
+    <t>001-002-0013023</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t>ccamion</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tst 1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm &amp;#x2F;AP500</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>Ferropar SA</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>cordon marron</t>
+  </si>
+  <si>
+    <t>NOTA_CREDITO</t>
+  </si>
+  <si>
+    <t>Electropar SA.</t>
+  </si>
+  <si>
+    <t>Oscar G</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>proveedor 12</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>varilla conf 12" " / AP500</t>
+  </si>
+  <si>
+    <t>proveedor 1</t>
+  </si>
+  <si>
+    <t>asdafsd sdf</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>estacionamiento</t>
+  </si>
+  <si>
+    <t>S_F</t>
+  </si>
+  <si>
+    <t>sin nombre</t>
+  </si>
+  <si>
+    <t>Jose lopez</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm &amp;amp;#x2F;AP500</t>
+  </si>
+  <si>
+    <t>123345</t>
+  </si>
+  <si>
+    <t>PRUEBA 1</t>
+  </si>
+  <si>
+    <t>NO_CONF</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm /AP500</t>
+  </si>
+  <si>
+    <t>RECIBO</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>estacionamiento y fotocopias</t>
   </si>
   <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
-    <t>sin nombre</t>
-  </si>
-  <si>
-    <t>oscar gonzalez</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>54767</t>
   </si>
   <si>
     <t>oscartest</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>varilla csdfsfd</t>
-  </si>
-  <si>
-    <t>sr proveedor</t>
-  </si>
-  <si>
-    <t>001-002-0013023</t>
-  </si>
-  <si>
-    <t>encargado test</t>
-  </si>
-  <si>
-    <t>ccamion</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>tst 1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>varilla conf 12mm &amp;#x2F;AP500</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>CREDITO</t>
-  </si>
-  <si>
-    <t>Ferropar SA</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>cordon marron</t>
-  </si>
-  <si>
-    <t>NOTA_CREDITO</t>
-  </si>
-  <si>
-    <t>Electropar SA.</t>
-  </si>
-  <si>
-    <t>Oscar G</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>proveedor 12</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>varilla conf 12" " / AP500</t>
-  </si>
-  <si>
-    <t>proveedor 1</t>
-  </si>
-  <si>
-    <t>asdafsd sdf</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>estacionamiento</t>
-  </si>
-  <si>
-    <t>S_F</t>
-  </si>
-  <si>
-    <t>Jose lopez</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>varilla conf 12mm &amp;amp;#x2F;AP500</t>
-  </si>
-  <si>
-    <t>123345</t>
-  </si>
-  <si>
-    <t>PRUEBA 1</t>
-  </si>
-  <si>
-    <t>NO_CONF</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>varilla conf 12mm /AP500</t>
-  </si>
-  <si>
-    <t>RECIBO</t>
-  </si>
-  <si>
-    <t>TEST</t>
+    <t>CONF</t>
   </si>
   <si>
     <t>25</t>
@@ -253,37 +259,16 @@
     <t>26</t>
   </si>
   <si>
-    <t>caja</t>
+    <t>cambios</t>
+  </si>
+  <si>
+    <t>Luis Oviedo</t>
+  </si>
+  <si>
+    <t>caja 1</t>
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>54767</t>
-  </si>
-  <si>
-    <t>CONF</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>cambios</t>
-  </si>
-  <si>
-    <t>Luis Oviedo</t>
-  </si>
-  <si>
-    <t>caja 1</t>
-  </si>
-  <si>
-    <t>31</t>
   </si>
   <si>
     <t>000123</t>
@@ -337,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -401,22 +386,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="3">
-        <v>25569</v>
+        <v>43050</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -428,48 +413,48 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
-        <v>25569</v>
+        <v>43050</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -481,48 +466,48 @@
         <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
-        <v>25569</v>
+        <v>43050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -534,48 +519,48 @@
         <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
-        <v>25569</v>
+        <v>43050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -587,25 +572,25 @@
         <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -616,19 +601,19 @@
         <v>43050</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>78000</v>
+        <v>265000</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>29</v>
@@ -637,307 +622,307 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M6" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6243370</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3">
-        <v>43050</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>7090.91</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>256228</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3">
-        <v>43050</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>265000</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>250000</v>
+        <v>624470</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>22727.27</v>
+        <v>56770</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>43437</v>
+        <v>43446</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>740000</v>
+        <v>450000</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>22727.27</v>
@@ -946,63 +931,63 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>250000</v>
+        <v>700000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-107568</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>-107568</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43439</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>6243370</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>44</v>
@@ -1011,7 +996,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>46</v>
@@ -1020,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1037,10 +1022,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="3">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>256228</v>
+        <v>-150000</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
@@ -1052,469 +1037,469 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0</v>
+        <v>-150000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3">
-        <v>43439</v>
+        <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>624470</v>
+        <v>250000</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>56770</v>
+        <v>22727.27</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0</v>
+        <v>818922</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>700000</v>
+        <v>180000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-107568</v>
+        <v>180000</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0</v>
+        <v>16363.64</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-107568</v>
+        <v>180000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3">
-        <v>43446</v>
+        <v>43452</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>-150000</v>
+        <v>150000</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0</v>
+        <v>583000</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>13636.36</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-150000</v>
+        <v>733000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43474</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="3">
-        <v>43447</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>250000</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>568922</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>22727.27</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>818922</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
-        <v>43451</v>
+        <v>43488</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>180000</v>
+        <v>24950000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>123</v>
+        <v>4589</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3">
-        <v>43451</v>
+        <v>43488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>180000</v>
+        <v>2859000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
-        <v>43452</v>
+        <v>43498</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>733000</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3">
-        <v>43474</v>
+        <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
@@ -1529,45 +1514,45 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3">
-        <v>43488</v>
+        <v>43501</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0</v>
@@ -1582,107 +1567,107 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>24950000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4589</v>
+        <v>303</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43502</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>8750500</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>416690.48</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>8765500</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="3">
-        <v>43488</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>2859000</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q25" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3">
-        <v>43498</v>
+        <v>43507</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0</v>
+        <v>909.09</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>0</v>
@@ -1691,45 +1676,45 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3">
-        <v>43501</v>
+        <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0</v>
+        <v>35900</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
@@ -1741,45 +1726,45 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B28" s="3">
-        <v>43501</v>
+        <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0</v>
@@ -1794,249 +1779,37 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="3">
-        <v>43502</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>8750500</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>416690.48</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>8765500</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="3">
-        <v>43507</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>450000</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>909.09</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>303</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="3">
-        <v>43507</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>35900</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="3">
-        <v>43517</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -85,30 +85,30 @@
     <t>oscartest</t>
   </si>
   <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>asdafsd sdf</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>OBRA TEST</t>
   </si>
   <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>asdafsd sdf</t>
-  </si>
-  <si>
-    <t>caja</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>arreglo juguetes</t>
   </si>
   <si>
     <t>analia riveros 1</t>
   </si>
   <si>
-    <t>Casa Particular</t>
-  </si>
-  <si>
     <t>cordon marron</t>
   </si>
   <si>
@@ -136,33 +136,87 @@
     <t>luis oviedo</t>
   </si>
   <si>
+    <t>varilla conf 12mm /AP500</t>
+  </si>
+  <si>
+    <t>Ferropar SA</t>
+  </si>
+  <si>
+    <t>001-002-0013023</t>
+  </si>
+  <si>
+    <t>Oscar G</t>
+  </si>
+  <si>
+    <t>ccamion</t>
+  </si>
+  <si>
+    <t>cambios</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>Electropar SA.</t>
+  </si>
+  <si>
+    <t>Luis Oviedo</t>
+  </si>
+  <si>
+    <t>caja 1</t>
+  </si>
+  <si>
     <t>estacionamiento</t>
   </si>
   <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
     <t>54767</t>
   </si>
   <si>
     <t>CONF</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t>estacionamiento y fotocopias</t>
+  </si>
+  <si>
+    <t>RECIBO</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm &amp;amp;#x2F;AP500</t>
+  </si>
+  <si>
+    <t>proveedor 1</t>
+  </si>
+  <si>
+    <t>PRUEBA 1</t>
+  </si>
+  <si>
+    <t>NO_CONF</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Jose lopez</t>
+  </si>
+  <si>
     <t>varilla conf 12mm &amp;#x2F;AP500</t>
   </si>
   <si>
     <t>sr proveedor</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>Columnas Metalicas 2_</t>
   </si>
   <si>
-    <t>ccamion</t>
-  </si>
-  <si>
     <t>PRUEBA DE OBRA</t>
   </si>
   <si>
@@ -172,21 +226,15 @@
     <t>varilla conf 12" " / AP500</t>
   </si>
   <si>
-    <t>proveedor 1</t>
-  </si>
-  <si>
-    <t>001-002-0013023</t>
-  </si>
-  <si>
-    <t>encargado test</t>
-  </si>
-  <si>
-    <t>Ferropar SA</t>
-  </si>
-  <si>
     <t>Cristina</t>
   </si>
   <si>
+    <t>NOTA_CREDITO</t>
+  </si>
+  <si>
+    <t>proveedor 12</t>
+  </si>
+  <si>
     <t>asdasd</t>
   </si>
   <si>
@@ -194,6 +242,9 @@
   </si>
   <si>
     <t>analia riveros</t>
+  </si>
+  <si>
+    <t>tst 1</t>
   </si>
   <si>
     <t>varilla csdfsfd</t>
@@ -244,7 +295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -415,7 +466,7 @@
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>26</v>
@@ -471,10 +522,10 @@
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>26</v>
@@ -606,120 +657,120 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3">
-        <v>43502</v>
+        <v>43507</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>8750500</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>909.09</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>416690.48</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>8765500</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43507</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>35900</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="3">
-        <v>43502</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>8750500</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>416690.48</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>8765500</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -745,16 +796,16 @@
         <v>8765500</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
@@ -766,10 +817,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>26</v>
@@ -778,157 +829,157 @@
         <v>27</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
-        <v>43452</v>
+        <v>43502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>150000</v>
+        <v>8750500</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>583000</v>
+        <v>15000</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>733000</v>
+        <v>8765500</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
-        <v>43452</v>
+        <v>43502</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>150000</v>
+        <v>8750500</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>583000</v>
+        <v>15000</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>733000</v>
+        <v>8765500</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3">
-        <v>43451</v>
+        <v>43501</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>54</v>
@@ -937,22 +988,22 @@
         <v>55</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>38</v>
@@ -960,34 +1011,34 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3">
-        <v>43451</v>
+        <v>43501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>54</v>
@@ -996,22 +1047,22 @@
         <v>55</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>38</v>
@@ -1019,58 +1070,58 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3">
-        <v>43451</v>
+        <v>43498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>38</v>
@@ -1078,55 +1129,55 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3">
-        <v>43451</v>
+        <v>43488</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>180000</v>
+        <v>2859000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>38</v>
@@ -1137,117 +1188,117 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
-        <v>43447</v>
+        <v>43488</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>22727.27</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>818922</v>
+        <v>24950000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>23</v>
+        <v>4589</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
-        <v>43447</v>
+        <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>22727.27</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>818922</v>
+        <v>10000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>38</v>
@@ -1255,55 +1306,55 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>43447</v>
+        <v>43452</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>568922</v>
+        <v>583000</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>22727.27</v>
+        <v>13636.36</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>818922</v>
+        <v>733000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>38</v>
@@ -1314,55 +1365,55 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>43437</v>
+        <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>740000</v>
+        <v>583000</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>22727.27</v>
+        <v>13636.36</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>250000</v>
+        <v>733000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>38</v>
@@ -1373,55 +1424,55 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>43437</v>
+        <v>43451</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>38</v>
@@ -1432,55 +1483,55 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3">
-        <v>43050</v>
+        <v>43451</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>78000</v>
+        <v>180000</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>7090.91</v>
+        <v>16363.64</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>78000</v>
+        <v>180000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>38</v>
@@ -1491,55 +1542,55 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
-        <v>43050</v>
+        <v>43451</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>78000</v>
+        <v>180000</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>7090.91</v>
+        <v>16363.64</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>78000</v>
+        <v>180000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>38</v>
@@ -1550,55 +1601,55 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
-        <v>43050</v>
+        <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>78000</v>
+        <v>180000</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>7090.91</v>
+        <v>16363.64</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>78000</v>
+        <v>180000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>38</v>
@@ -1609,55 +1660,55 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>43050</v>
+        <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>78000</v>
+        <v>818922</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>38</v>
@@ -1668,55 +1719,55 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43447</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>568922</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>818922</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <v>43050</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>7090.91</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>56</v>
-      </c>
       <c r="O25" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>38</v>
@@ -1727,55 +1778,55 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43447</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>568922</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>818922</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
-        <v>43050</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>7090.91</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>56</v>
-      </c>
       <c r="O26" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>38</v>
@@ -1786,34 +1837,34 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>43050</v>
+        <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>78000</v>
+        <v>-150000</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>78000</v>
+        <v>-150000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>54</v>
@@ -1822,19 +1873,19 @@
         <v>55</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>38</v>
@@ -1845,60 +1896,945 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-107568</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-107568</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>700000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>624470</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>56770</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>256228</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>6243370</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43437</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43437</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>265000</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B36" s="3">
         <v>43050</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C36" s="1" t="n">
         <v>78000</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="n">
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>7090.91</v>
       </c>
-      <c r="F28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="n">
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>78000</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="2" t="n">
+      <c r="M36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="N36" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S28" s="1" t="s">
+      <c r="O36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -85,33 +85,48 @@
     <t>oscartest</t>
   </si>
   <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>asdafsd sdf</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
     <t>Casa Particular</t>
   </si>
   <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>asdafsd sdf</t>
-  </si>
-  <si>
-    <t>caja</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
-  </si>
-  <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
     <t>cordon marron</t>
   </si>
   <si>
+    <t>hghgdf</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>ccamion</t>
+  </si>
+  <si>
+    <t>caja 1</t>
+  </si>
+  <si>
+    <t>NO_CONF</t>
+  </si>
+  <si>
     <t>S_F</t>
   </si>
   <si>
@@ -136,6 +151,18 @@
     <t>luis oviedo</t>
   </si>
   <si>
+    <t>cambios</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>Electropar SA.</t>
+  </si>
+  <si>
+    <t>Luis Oviedo</t>
+  </si>
+  <si>
     <t>varilla conf 12mm /AP500</t>
   </si>
   <si>
@@ -148,24 +175,6 @@
     <t>Oscar G</t>
   </si>
   <si>
-    <t>ccamion</t>
-  </si>
-  <si>
-    <t>cambios</t>
-  </si>
-  <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
-    <t>Electropar SA.</t>
-  </si>
-  <si>
-    <t>Luis Oviedo</t>
-  </si>
-  <si>
-    <t>caja 1</t>
-  </si>
-  <si>
     <t>estacionamiento</t>
   </si>
   <si>
@@ -175,9 +184,6 @@
     <t>CONF</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>encargado test</t>
   </si>
   <si>
@@ -199,9 +205,6 @@
     <t>PRUEBA 1</t>
   </si>
   <si>
-    <t>NO_CONF</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -214,15 +217,15 @@
     <t>sr proveedor</t>
   </si>
   <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
     <t>Columnas Metalicas 2_</t>
   </si>
   <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
-    <t>prueba de 2</t>
-  </si>
-  <si>
     <t>varilla conf 12" " / AP500</t>
   </si>
   <si>
@@ -244,10 +247,10 @@
     <t>analia riveros</t>
   </si>
   <si>
+    <t>varilla csdfsfd</t>
+  </si>
+  <si>
     <t>tst 1</t>
-  </si>
-  <si>
-    <t>varilla csdfsfd</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -466,7 +469,7 @@
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>26</v>
@@ -522,10 +525,10 @@
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>26</v>
@@ -539,137 +542,137 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
-        <v>43517</v>
+        <v>43529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>458000</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>41636.36</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3">
-        <v>43517</v>
+        <v>43529</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>458000</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>41636.36</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="S6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3">
-        <v>43507</v>
+        <v>43529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>10000</v>
+        <v>458000</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>909.09</v>
+        <v>41636.36</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
@@ -678,51 +681,51 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
-        <v>43507</v>
+        <v>43517</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>35900</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
@@ -734,405 +737,405 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43517</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3">
-        <v>43502</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>8750500</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>416690.48</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>8765500</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3">
-        <v>43502</v>
+        <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>8750500</v>
+        <v>35900</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>416690.48</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>8765500</v>
+        <v>50000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3">
-        <v>43502</v>
+        <v>43507</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>8750500</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0</v>
+        <v>909.09</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>416690.48</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>8765500</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3">
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0</v>
+        <v>8750500</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0</v>
+        <v>8765500</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3">
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0</v>
+        <v>8750500</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>8765500</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3">
-        <v>43498</v>
+        <v>43502</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0</v>
+        <v>8750500</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0</v>
+        <v>8765500</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3">
-        <v>43488</v>
+        <v>43501</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
@@ -1147,51 +1150,51 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>2859000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="M15" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3">
-        <v>43488</v>
+        <v>43501</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
@@ -1206,51 +1209,51 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>24950000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4589</v>
+        <v>303</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3">
-        <v>43474</v>
+        <v>43498</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
@@ -1265,34 +1268,34 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>28</v>
@@ -1301,302 +1304,302 @@
         <v>28</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
-        <v>43452</v>
+        <v>43488</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>733000</v>
+        <v>2859000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
-        <v>43452</v>
+        <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>733000</v>
+        <v>24950000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>56</v>
+        <v>4589</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3">
-        <v>43451</v>
+        <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0</v>
+        <v>583000</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>16363.64</v>
+        <v>13636.36</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>180000</v>
+        <v>733000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0</v>
+        <v>583000</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>16363.64</v>
+        <v>13636.36</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>180000</v>
+        <v>733000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1622,19 +1625,19 @@
         <v>180000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>0</v>
@@ -1643,328 +1646,328 @@
         <v>123</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
-        <v>43447</v>
+        <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>818922</v>
+        <v>180000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
-        <v>43447</v>
+        <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>818922</v>
+        <v>180000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
-        <v>43447</v>
+        <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>818922</v>
+        <v>180000</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>-150000</v>
+        <v>250000</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>-150000</v>
+        <v>818922</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="M27" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-107568</v>
+        <v>250000</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-107568</v>
+        <v>818922</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="M28" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>450000</v>
+        <v>568922</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>22727.27</v>
@@ -1973,113 +1976,113 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>700000</v>
+        <v>818922</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>624470</v>
+        <v>-150000</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>56770</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>-150000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>256228</v>
+        <v>-107568</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0</v>
@@ -2091,231 +2094,231 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0</v>
+        <v>-107568</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>6243370</v>
+        <v>250000</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3">
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>250000</v>
+        <v>624470</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>22727.27</v>
+        <v>56770</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3">
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>250000</v>
+        <v>256228</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>22727.27</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3">
-        <v>43050</v>
+        <v>43439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0</v>
+        <v>6243370</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0</v>
@@ -2327,161 +2330,161 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>265000</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2513,13 +2516,13 @@
         <v>47</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>5</v>
@@ -2528,24 +2531,24 @@
         <v>56</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>43050</v>
@@ -2572,13 +2575,13 @@
         <v>47</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>5</v>
@@ -2593,13 +2596,13 @@
         <v>69</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2631,13 +2634,13 @@
         <v>47</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>5</v>
@@ -2646,24 +2649,24 @@
         <v>56</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3">
         <v>43050</v>
@@ -2690,13 +2693,13 @@
         <v>47</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>5</v>
@@ -2705,19 +2708,19 @@
         <v>56</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2749,13 +2752,13 @@
         <v>47</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>5</v>
@@ -2764,78 +2767,255 @@
         <v>56</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3">
         <v>43050</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>78000</v>
+        <v>265000</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N43" s="2" t="n">
+      <c r="N44" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>38</v>
+      <c r="Q45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -151,6 +151,18 @@
     <t>luis oviedo</t>
   </si>
   <si>
+    <t>varilla conf 12mm /AP500</t>
+  </si>
+  <si>
+    <t>Ferropar SA</t>
+  </si>
+  <si>
+    <t>001-002-0013023</t>
+  </si>
+  <si>
+    <t>Oscar G</t>
+  </si>
+  <si>
     <t>cambios</t>
   </si>
   <si>
@@ -163,18 +175,6 @@
     <t>Luis Oviedo</t>
   </si>
   <si>
-    <t>varilla conf 12mm /AP500</t>
-  </si>
-  <si>
-    <t>Ferropar SA</t>
-  </si>
-  <si>
-    <t>001-002-0013023</t>
-  </si>
-  <si>
-    <t>Oscar G</t>
-  </si>
-  <si>
     <t>estacionamiento</t>
   </si>
   <si>
@@ -190,6 +190,9 @@
     <t>estacionamiento y fotocopias</t>
   </si>
   <si>
+    <t>varilla conf 12mm &amp;#x2F;AP500</t>
+  </si>
+  <si>
     <t>RECIBO</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>Jose lopez</t>
-  </si>
-  <si>
-    <t>varilla conf 12mm &amp;#x2F;AP500</t>
   </si>
   <si>
     <t>sr proveedor</t>
@@ -584,10 +584,10 @@
         <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>35</v>
@@ -643,10 +643,10 @@
         <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>35</v>
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>25</v>
@@ -837,46 +837,46 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3">
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>35900</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>909.09</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>43</v>
@@ -888,54 +888,54 @@
         <v>35</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>43507</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>10000</v>
+        <v>35900</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>909.09</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>43</v>
@@ -947,10 +947,10 @@
         <v>35</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -979,7 +979,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
@@ -997,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>25</v>
@@ -1038,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
@@ -1056,10 +1056,10 @@
         <v>23</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>26</v>
@@ -1097,7 +1097,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
@@ -1115,10 +1115,10 @@
         <v>23</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>26</v>
@@ -1274,7 +1274,7 @@
         <v>58</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
@@ -1327,22 +1327,22 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>2859000</v>
+        <v>30000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
@@ -1360,10 +1360,10 @@
         <v>28</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1389,19 +1389,19 @@
         <v>24950000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>1</v>
@@ -1507,10 +1507,10 @@
         <v>733000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>67</v>
@@ -1566,10 +1566,10 @@
         <v>733000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>67</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>43451</v>
@@ -1628,13 +1628,13 @@
         <v>71</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>57</v>
@@ -1646,10 +1646,10 @@
         <v>123</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>26</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <v>43451</v>
@@ -1687,13 +1687,13 @@
         <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>57</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>43451</v>
@@ -1746,13 +1746,13 @@
         <v>71</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>57</v>
@@ -1764,10 +1764,10 @@
         <v>123</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>26</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>43451</v>
@@ -1805,13 +1805,13 @@
         <v>71</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>57</v>
@@ -1864,13 +1864,13 @@
         <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>72</v>
@@ -1923,13 +1923,13 @@
         <v>28</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>72</v>
@@ -1982,13 +1982,13 @@
         <v>28</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>72</v>
@@ -2038,7 +2038,7 @@
         <v>-150000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>73</v>
@@ -2103,13 +2103,13 @@
         <v>73</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>1</v>
@@ -2156,16 +2156,16 @@
         <v>700000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>57</v>
@@ -2215,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>72</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>72</v>
@@ -2333,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>72</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3">
         <v>43437</v>
@@ -2392,16 +2392,16 @@
         <v>250000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>75</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B37" s="3">
         <v>43437</v>
@@ -2451,16 +2451,16 @@
         <v>250000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>75</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3">
         <v>43050</v>
@@ -2513,13 +2513,13 @@
         <v>78</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>57</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3">
         <v>43050</v>
@@ -2572,13 +2572,13 @@
         <v>78</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>57</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3">
         <v>43050</v>
@@ -2631,13 +2631,13 @@
         <v>78</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>57</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3">
         <v>43050</v>
@@ -2690,13 +2690,13 @@
         <v>78</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>57</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B42" s="3">
         <v>43050</v>
@@ -2749,13 +2749,13 @@
         <v>78</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>57</v>
@@ -2784,55 +2784,55 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3">
         <v>43050</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>265000</v>
+        <v>78000</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>43</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" s="3">
         <v>43050</v>
@@ -2867,13 +2867,13 @@
         <v>78</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>57</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3">
         <v>43050</v>
@@ -2926,13 +2926,13 @@
         <v>78</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>57</v>
@@ -2961,55 +2961,55 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B46" s="3">
         <v>43050</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>78000</v>
+        <v>265000</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>43</v>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -55,12 +55,12 @@
     <t>OT NRO</t>
   </si>
   <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
     <t>OBRA</t>
   </si>
   <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
     <t>IMPUTADO</t>
   </si>
   <si>
@@ -73,6 +73,33 @@
     <t>test</t>
   </si>
   <si>
+    <t>S_F</t>
+  </si>
+  <si>
+    <t>fhtyjyt</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Columnas Metalicas 2_</t>
+  </si>
+  <si>
+    <t>CONF</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
     <t>CREDITO</t>
   </si>
   <si>
@@ -85,39 +112,33 @@
     <t>oscartest</t>
   </si>
   <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>asdafsd sdf</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
     <t>OBRA TEST</t>
   </si>
   <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>asdafsd sdf</t>
-  </si>
-  <si>
-    <t>caja</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
-  </si>
-  <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
-    <t>Casa Particular</t>
-  </si>
-  <si>
     <t>cordon marron</t>
   </si>
   <si>
     <t>hghgdf</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>ccamion</t>
   </si>
   <si>
@@ -127,9 +148,6 @@
     <t>NO_CONF</t>
   </si>
   <si>
-    <t>S_F</t>
-  </si>
-  <si>
     <t>sin nombre</t>
   </si>
   <si>
@@ -145,10 +163,22 @@
     <t>null</t>
   </si>
   <si>
+    <t>luis oviedo</t>
+  </si>
+  <si>
     <t>hierro porton</t>
   </si>
   <si>
-    <t>luis oviedo</t>
+    <t>cambios</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>Electropar SA.</t>
+  </si>
+  <si>
+    <t>Luis Oviedo</t>
   </si>
   <si>
     <t>varilla conf 12mm /AP500</t>
@@ -163,27 +193,12 @@
     <t>Oscar G</t>
   </si>
   <si>
-    <t>cambios</t>
-  </si>
-  <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
-    <t>Electropar SA.</t>
-  </si>
-  <si>
-    <t>Luis Oviedo</t>
-  </si>
-  <si>
     <t>estacionamiento</t>
   </si>
   <si>
     <t>54767</t>
   </si>
   <si>
-    <t>CONF</t>
-  </si>
-  <si>
     <t>encargado test</t>
   </si>
   <si>
@@ -196,9 +211,6 @@
     <t>RECIBO</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>varilla conf 12mm &amp;amp;#x2F;AP500</t>
   </si>
   <si>
@@ -217,15 +229,6 @@
     <t>sr proveedor</t>
   </si>
   <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
-    <t>prueba de 2</t>
-  </si>
-  <si>
-    <t>Columnas Metalicas 2_</t>
-  </si>
-  <si>
     <t>varilla conf 12" " / AP500</t>
   </si>
   <si>
@@ -241,10 +244,10 @@
     <t>asdasd</t>
   </si>
   <si>
+    <t>analia riveros</t>
+  </si>
+  <si>
     <t>control porton</t>
-  </si>
-  <si>
-    <t>analia riveros</t>
   </si>
   <si>
     <t>varilla csdfsfd</t>
@@ -298,7 +301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -365,22 +368,22 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3">
-        <v>43536</v>
+        <v>43550</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>71428.57</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
@@ -401,10 +404,10 @@
         <v>23</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>24</v>
@@ -413,33 +416,33 @@
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3">
-        <v>43536</v>
+        <v>43550</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>71428.57</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -460,25 +463,25 @@
         <v>23</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -507,16 +510,16 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>7</v>
@@ -525,69 +528,69 @@
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3">
-        <v>43529</v>
+        <v>43536</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>458000</v>
+        <v>1500000</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>41636.36</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>71428.57</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>35</v>
@@ -596,57 +599,57 @@
         <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
-        <v>43529</v>
+        <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>458000</v>
+        <v>1500000</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>41636.36</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>71428.57</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M6" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>35</v>
@@ -655,7 +658,7 @@
         <v>36</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -681,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>4</v>
@@ -702,373 +705,373 @@
         <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43529</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>458000</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>41636.36</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3">
-        <v>43517</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43529</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>458000</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>41636.36</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3">
-        <v>43517</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="M9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3">
-        <v>43507</v>
+        <v>43517</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>909.09</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43517</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3">
-        <v>43507</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>35900</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="Q11" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3">
-        <v>43502</v>
+        <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>8750500</v>
+        <v>35900</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>416690.48</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>8765500</v>
+        <v>50000</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M12" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3">
-        <v>43502</v>
+        <v>43507</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>8750500</v>
+        <v>10000</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0</v>
+        <v>909.09</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>416690.48</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>8765500</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1094,19 +1097,19 @@
         <v>8765500</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>5</v>
@@ -1115,145 +1118,145 @@
         <v>23</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3">
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0</v>
+        <v>8750500</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0</v>
+        <v>8765500</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>303</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3">
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0</v>
+        <v>8750500</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>8765500</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
-        <v>43498</v>
+        <v>43501</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
@@ -1271,48 +1274,48 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
-        <v>43488</v>
+        <v>43501</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0</v>
@@ -1327,51 +1330,51 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
-        <v>43488</v>
+        <v>43498</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0</v>
@@ -1386,51 +1389,51 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>24950000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4589</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
-        <v>43474</v>
+        <v>43488</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0</v>
@@ -1445,279 +1448,279 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>43452</v>
+        <v>43488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>733000</v>
+        <v>24950000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>56</v>
+        <v>4589</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43474</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>43452</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>150000</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>583000</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>13636.36</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>733000</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0</v>
+        <v>583000</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>16363.64</v>
+        <v>13636.36</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>180000</v>
+        <v>733000</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>583000</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>16363.64</v>
+        <v>13636.36</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>180000</v>
+        <v>733000</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="R24" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1743,19 +1746,19 @@
         <v>180000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>0</v>
@@ -1764,19 +1767,19 @@
         <v>123</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1802,19 +1805,19 @@
         <v>180000</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>0</v>
@@ -1823,137 +1826,137 @@
         <v>123</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>43447</v>
+        <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>818922</v>
+        <v>180000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>43447</v>
+        <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>818922</v>
+        <v>180000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -1979,19 +1982,19 @@
         <v>818922</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>3</v>
@@ -2000,314 +2003,314 @@
         <v>23</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>-150000</v>
+        <v>250000</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>-150000</v>
+        <v>818922</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="M30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="Q30" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>-107568</v>
+        <v>250000</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>-107568</v>
+        <v>818922</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="M31" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>250000</v>
+        <v>-150000</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>22727.27</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>700000</v>
+        <v>-150000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>624470</v>
+        <v>-107568</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>56770</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>-107568</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>256228</v>
+        <v>250000</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2333,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>1</v>
@@ -2354,255 +2357,255 @@
         <v>227</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3">
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>250000</v>
+        <v>624470</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>22727.27</v>
+        <v>56770</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B37" s="3">
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>250000</v>
+        <v>256228</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>22727.27</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q38" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B39" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="Q39" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2628,19 +2631,19 @@
         <v>78000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>5</v>
@@ -2649,24 +2652,24 @@
         <v>56</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3">
         <v>43050</v>
@@ -2687,19 +2690,19 @@
         <v>78000</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>5</v>
@@ -2708,19 +2711,19 @@
         <v>56</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2746,19 +2749,19 @@
         <v>78000</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>5</v>
@@ -2767,24 +2770,24 @@
         <v>56</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B43" s="3">
         <v>43050</v>
@@ -2805,19 +2808,19 @@
         <v>78000</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>5</v>
@@ -2826,83 +2829,83 @@
         <v>56</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B44" s="3">
         <v>43050</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>78000</v>
+        <v>265000</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" s="3">
         <v>43050</v>
@@ -2923,19 +2926,19 @@
         <v>78000</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>5</v>
@@ -2944,78 +2947,196 @@
         <v>56</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B46" s="3">
         <v>43050</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>265000</v>
+        <v>78000</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>43</v>
+      <c r="Q48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -112,25 +112,25 @@
     <t>oscartest</t>
   </si>
   <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>asdafsd sdf</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
     <t>Luis Enrique</t>
   </si>
   <si>
     <t>Casa Particular</t>
   </si>
   <si>
-    <t>asdafsd sdf</t>
-  </si>
-  <si>
-    <t>caja</t>
-  </si>
-  <si>
     <t>OBRA TEST</t>
-  </si>
-  <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
   </si>
   <si>
     <t>cordon marron</t>
@@ -647,10 +647,10 @@
         <v>23</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>35</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>39</v>
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>41</v>
@@ -815,10 +815,10 @@
         <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>41</v>
@@ -871,10 +871,10 @@
         <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>41</v>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -103,6 +103,27 @@
     <t>CONTADO</t>
   </si>
   <si>
+    <t>S_F</t>
+  </si>
+  <si>
+    <t>fhtyjyt</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>Columnas Metalicas 2_</t>
+  </si>
+  <si>
+    <t>hierro porton</t>
+  </si>
+  <si>
     <t>hjtntyn</t>
   </si>
   <si>
@@ -142,6 +163,21 @@
     <t>caja 1</t>
   </si>
   <si>
+    <t>sin nombre</t>
+  </si>
+  <si>
+    <t>000123</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
+  </si>
+  <si>
+    <t>luis oviedo</t>
+  </si>
+  <si>
+    <t>obra de trabajo</t>
+  </si>
+  <si>
     <t>cambios</t>
   </si>
   <si>
@@ -151,6 +187,36 @@
     <t>Luis Oviedo</t>
   </si>
   <si>
+    <t>varilla conf 12mm /AP500</t>
+  </si>
+  <si>
+    <t>Ferropar SA</t>
+  </si>
+  <si>
+    <t>001-002-0013023</t>
+  </si>
+  <si>
+    <t>Oscar G</t>
+  </si>
+  <si>
+    <t>estacionamiento</t>
+  </si>
+  <si>
+    <t>54767</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t>estacionamiento y fotocopias</t>
+  </si>
+  <si>
+    <t>varilla conf 12mm &amp;#x2F;AP500</t>
+  </si>
+  <si>
+    <t>RECIBO</t>
+  </si>
+  <si>
     <t>varilla conf 12mm &amp;amp;#x2F;AP500</t>
   </si>
   <si>
@@ -158,6 +224,36 @@
   </si>
   <si>
     <t>PRUEBA 1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Jose lopez</t>
+  </si>
+  <si>
+    <t>sr proveedor</t>
+  </si>
+  <si>
+    <t>varilla conf 12" " / AP500</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>NOTA_CREDITO</t>
+  </si>
+  <si>
+    <t>proveedor 12</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>varilla csdfsfd</t>
+  </si>
+  <si>
+    <t>tst 1</t>
   </si>
 </sst>
 </file>
@@ -205,7 +301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -493,7 +589,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>43551</v>
@@ -514,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>29</v>
@@ -549,16 +645,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3">
-        <v>43536</v>
+        <v>43551</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
@@ -570,51 +666,51 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3">
-        <v>43536</v>
+        <v>43550</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
@@ -629,48 +725,48 @@
         <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3">
-        <v>43536</v>
+        <v>43550</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0</v>
@@ -685,63 +781,63 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3">
-        <v>43529</v>
+        <v>43550</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>458000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>41636.36</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
@@ -753,39 +849,39 @@
         <v>32</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="P10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3">
-        <v>43529</v>
+        <v>43536</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>458000</v>
+        <v>1500000</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>41636.36</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>0</v>
@@ -794,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>4</v>
@@ -815,33 +911,33 @@
         <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3">
-        <v>43529</v>
+        <v>43536</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>458000</v>
+        <v>1500000</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>41636.36</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0</v>
@@ -850,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>4</v>
@@ -871,30 +967,30 @@
         <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3">
-        <v>43507</v>
+        <v>43536</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>35900</v>
+        <v>1500000</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0</v>
@@ -903,96 +999,2392 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43529</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>458000</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>41636.36</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43529</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>458000</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>41636.36</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43529</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>458000</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>41636.36</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43517</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43517</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43507</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>35900</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43507</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>909.09</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43502</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>8750500</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>416690.48</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>8765500</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43502</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>8750500</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>416690.48</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>8765500</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43502</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>8750500</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>416690.48</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>8765500</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43501</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43501</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43498</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43488</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3">
+      <c r="K27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
         <v>43488</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="n">
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>24950000</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>4589</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43474</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43452</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>583000</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>13636.36</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>733000</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43452</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>583000</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>13636.36</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>733000</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>16363.64</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43447</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>568922</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>818922</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43447</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>568922</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>818922</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43447</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>568922</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>818922</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="Q38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="B39" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-107568</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>-107568</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="I40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>700000</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>4589</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>25</v>
+      <c r="R41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>256228</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>6243370</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>624470</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>56770</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43437</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43437</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>22727.27</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B50" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B52" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B53" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>265000</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B54" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B55" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,9 @@
     <t>ORIGEN PAGO</t>
   </si>
   <si>
+    <t>TIPO</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>CONTADO</t>
   </si>
   <si>
+    <t>CONF</t>
+  </si>
+  <si>
     <t>S_F</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
   </si>
   <si>
     <t>caja 1</t>
+  </si>
+  <si>
+    <t>NO_CONF</t>
   </si>
   <si>
     <t>sin nombre</t>
@@ -301,13 +310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -362,8 +371,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="n">
         <v>56</v>
       </c>
@@ -386,19 +398,19 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
@@ -407,19 +419,22 @@
         <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="n">
         <v>57</v>
       </c>
@@ -442,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -463,19 +478,22 @@
         <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="n">
         <v>55</v>
       </c>
@@ -498,20 +516,20 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
       </c>
@@ -519,19 +537,22 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="n">
         <v>54</v>
       </c>
@@ -554,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>4</v>
@@ -575,19 +596,22 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="n">
         <v>53</v>
       </c>
@@ -610,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>4</v>
@@ -631,19 +655,22 @@
         <v>0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="n">
         <v>52</v>
       </c>
@@ -666,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>4</v>
@@ -687,19 +714,22 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="n">
         <v>50</v>
       </c>
@@ -722,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0</v>
@@ -743,19 +773,22 @@
         <v>56</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="n">
         <v>50</v>
       </c>
@@ -778,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>0</v>
@@ -799,19 +832,22 @@
         <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="n">
         <v>51</v>
       </c>
@@ -834,19 +870,19 @@
         <v>480000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
@@ -855,19 +891,22 @@
         <v>100</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>19</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="n">
         <v>48</v>
       </c>
@@ -890,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>4</v>
@@ -911,19 +950,22 @@
         <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="n">
         <v>48</v>
       </c>
@@ -946,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>4</v>
@@ -967,19 +1009,22 @@
         <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="n">
         <v>48</v>
       </c>
@@ -1002,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>4</v>
@@ -1023,19 +1068,22 @@
         <v>23</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="n">
         <v>49</v>
       </c>
@@ -1058,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>4</v>
@@ -1079,19 +1127,22 @@
         <v>23</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>51</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="n">
         <v>49</v>
       </c>
@@ -1114,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>4</v>
@@ -1135,19 +1186,22 @@
         <v>23</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>51</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="n">
         <v>49</v>
       </c>
@@ -1170,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>4</v>
@@ -1191,19 +1245,22 @@
         <v>23</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>51</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="n">
         <v>41</v>
       </c>
@@ -1226,19 +1283,19 @@
         <v>150000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>1</v>
@@ -1247,19 +1304,22 @@
         <v>123</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="n">
         <v>41</v>
       </c>
@@ -1282,19 +1342,19 @@
         <v>150000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
@@ -1303,19 +1363,22 @@
         <v>123</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="n">
         <v>46</v>
       </c>
@@ -1338,19 +1401,19 @@
         <v>50000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1359,19 +1422,22 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>51</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="n">
         <v>44</v>
       </c>
@@ -1394,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>1</v>
@@ -1415,19 +1481,22 @@
         <v>303</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="n">
         <v>45</v>
       </c>
@@ -1450,19 +1519,19 @@
         <v>8765500</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>5</v>
@@ -1471,19 +1540,22 @@
         <v>23</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="n">
         <v>45</v>
       </c>
@@ -1506,19 +1578,19 @@
         <v>8765500</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>5</v>
@@ -1527,19 +1599,22 @@
         <v>23</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="n">
         <v>45</v>
       </c>
@@ -1562,19 +1637,19 @@
         <v>8765500</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>5</v>
@@ -1583,19 +1658,22 @@
         <v>23</v>
       </c>
       <c r="O23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="n">
         <v>43</v>
       </c>
@@ -1618,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>3</v>
@@ -1639,19 +1717,22 @@
         <v>303</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="n">
         <v>42</v>
       </c>
@@ -1674,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>3</v>
@@ -1695,19 +1776,22 @@
         <v>303</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="n">
         <v>35</v>
       </c>
@@ -1730,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>0</v>
@@ -1751,19 +1835,22 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="n">
         <v>33</v>
       </c>
@@ -1786,19 +1873,19 @@
         <v>30000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>1</v>
@@ -1807,19 +1894,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="n">
         <v>32</v>
       </c>
@@ -1842,19 +1932,19 @@
         <v>24950000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>0</v>
@@ -1863,19 +1953,22 @@
         <v>4589</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="n">
         <v>40</v>
       </c>
@@ -1898,19 +1991,19 @@
         <v>10000</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>1</v>
@@ -1919,19 +2012,22 @@
         <v>108</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="n">
         <v>20</v>
       </c>
@@ -1954,19 +2050,19 @@
         <v>733000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>1</v>
@@ -1975,19 +2071,22 @@
         <v>56</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="n">
         <v>20</v>
       </c>
@@ -2010,19 +2109,19 @@
         <v>733000</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>1</v>
@@ -2031,19 +2130,22 @@
         <v>56</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -2066,19 +2168,19 @@
         <v>180000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>0</v>
@@ -2087,19 +2189,22 @@
         <v>123</v>
       </c>
       <c r="O32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
@@ -2122,19 +2227,19 @@
         <v>180000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>0</v>
@@ -2143,19 +2248,22 @@
         <v>123</v>
       </c>
       <c r="O33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
@@ -2178,19 +2286,19 @@
         <v>180000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>0</v>
@@ -2199,19 +2307,22 @@
         <v>123</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="n">
         <v>30</v>
       </c>
@@ -2234,19 +2345,19 @@
         <v>180000</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>0</v>
@@ -2255,19 +2366,22 @@
         <v>123</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="n">
         <v>19</v>
       </c>
@@ -2290,19 +2404,19 @@
         <v>818922</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>3</v>
@@ -2311,19 +2425,22 @@
         <v>23</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="n">
         <v>19</v>
       </c>
@@ -2346,19 +2463,19 @@
         <v>818922</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>3</v>
@@ -2367,19 +2484,22 @@
         <v>23</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="n">
         <v>19</v>
       </c>
@@ -2402,19 +2522,19 @@
         <v>818922</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>3</v>
@@ -2423,19 +2543,22 @@
         <v>23</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="n">
         <v>29</v>
       </c>
@@ -2458,19 +2581,19 @@
         <v>-150000</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>1</v>
@@ -2479,19 +2602,22 @@
         <v>32</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="n">
         <v>28</v>
       </c>
@@ -2514,19 +2640,19 @@
         <v>-107568</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>1</v>
@@ -2535,19 +2661,22 @@
         <v>12</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="n">
         <v>21</v>
       </c>
@@ -2570,19 +2699,19 @@
         <v>700000</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>3</v>
@@ -2591,19 +2720,22 @@
         <v>78</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="n">
         <v>17</v>
       </c>
@@ -2626,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>1</v>
@@ -2647,19 +2779,22 @@
         <v>227</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="n">
         <v>16</v>
       </c>
@@ -2682,19 +2817,19 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>1</v>
@@ -2703,19 +2838,22 @@
         <v>227</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="n">
         <v>18</v>
       </c>
@@ -2738,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>1</v>
@@ -2759,19 +2897,22 @@
         <v>227</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="n">
         <v>22</v>
       </c>
@@ -2794,19 +2935,19 @@
         <v>250000</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>3</v>
@@ -2815,19 +2956,22 @@
         <v>2</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1" t="n">
         <v>26</v>
       </c>
@@ -2850,19 +2994,19 @@
         <v>250000</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M46" s="2" t="n">
         <v>3</v>
@@ -2871,19 +3015,22 @@
         <v>2</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="n">
         <v>24</v>
       </c>
@@ -2906,19 +3053,19 @@
         <v>78000</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>5</v>
@@ -2927,19 +3074,22 @@
         <v>56</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="n">
         <v>23</v>
       </c>
@@ -2962,19 +3112,19 @@
         <v>78000</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M48" s="2" t="n">
         <v>5</v>
@@ -2983,19 +3133,22 @@
         <v>56</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="n">
         <v>27</v>
       </c>
@@ -3018,19 +3171,19 @@
         <v>78000</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M49" s="2" t="n">
         <v>5</v>
@@ -3039,19 +3192,22 @@
         <v>56</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1" t="n">
         <v>25</v>
       </c>
@@ -3074,19 +3230,19 @@
         <v>78000</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M50" s="2" t="n">
         <v>5</v>
@@ -3095,19 +3251,22 @@
         <v>56</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1" t="n">
         <v>27</v>
       </c>
@@ -3130,19 +3289,19 @@
         <v>78000</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M51" s="2" t="n">
         <v>5</v>
@@ -3151,19 +3310,22 @@
         <v>56</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="n">
         <v>24</v>
       </c>
@@ -3186,19 +3348,19 @@
         <v>78000</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>5</v>
@@ -3207,19 +3369,22 @@
         <v>56</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="n">
         <v>34</v>
       </c>
@@ -3242,19 +3407,19 @@
         <v>265000</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M53" s="2" t="n">
         <v>0</v>
@@ -3263,19 +3428,22 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="n">
         <v>25</v>
       </c>
@@ -3298,19 +3466,19 @@
         <v>78000</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M54" s="2" t="n">
         <v>5</v>
@@ -3319,19 +3487,22 @@
         <v>56</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="n">
         <v>23</v>
       </c>
@@ -3354,19 +3525,19 @@
         <v>78000</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M55" s="2" t="n">
         <v>5</v>
@@ -3375,16 +3546,19 @@
         <v>56</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -70,18 +70,66 @@
     <t>TIPO</t>
   </si>
   <si>
+    <t>estacionamiento</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>hjtntyn</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>encargado test</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Columnas Metalicas 2_</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
+    <t>NO_CONF</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
+  </si>
+  <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>CONF</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
     <t>CREDITO</t>
   </si>
   <si>
     <t>HOLA&amp;amp;CHAU</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>aasd</t>
   </si>
   <si>
@@ -91,9 +139,6 @@
     <t>control porton</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>CHAU&amp;HOLA</t>
   </si>
   <si>
@@ -103,63 +148,30 @@
     <t>hghgdf</t>
   </si>
   <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
-    <t>CONF</t>
-  </si>
-  <si>
     <t>S_F</t>
   </si>
   <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>hierro porton</t>
+  </si>
+  <si>
     <t>fhtyjyt</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>prueba de 2</t>
-  </si>
-  <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
-    <t>Columnas Metalicas 2_</t>
-  </si>
-  <si>
-    <t>hierro porton</t>
-  </si>
-  <si>
-    <t>hjtntyn</t>
-  </si>
-  <si>
     <t>123345</t>
   </si>
   <si>
     <t>oscartest</t>
   </si>
   <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
-  </si>
-  <si>
     <t>asdafsd sdf</t>
   </si>
   <si>
     <t>caja</t>
   </si>
   <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>Casa Particular</t>
-  </si>
-  <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
     <t>cordon marron</t>
   </si>
   <si>
@@ -169,18 +181,12 @@
     <t>caja 1</t>
   </si>
   <si>
-    <t>NO_CONF</t>
-  </si>
-  <si>
     <t>sin nombre</t>
   </si>
   <si>
     <t>000123</t>
   </si>
   <si>
-    <t>Oscar Gustavo</t>
-  </si>
-  <si>
     <t>luis oviedo</t>
   </si>
   <si>
@@ -208,13 +214,7 @@
     <t>Oscar G</t>
   </si>
   <si>
-    <t>estacionamiento</t>
-  </si>
-  <si>
     <t>54767</t>
-  </si>
-  <si>
-    <t>encargado test</t>
   </si>
   <si>
     <t>estacionamiento y fotocopias</t>
@@ -310,7 +310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -377,25 +377,25 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3">
-        <v>43571</v>
+        <v>43620</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>480000</v>
+        <v>15882</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>43636.36</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0</v>
+        <v>756.29</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>30882</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
@@ -413,10 +413,10 @@
         <v>23</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>24</v>
@@ -431,30 +431,30 @@
         <v>26</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3">
-        <v>43557</v>
+        <v>43620</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>123423523</v>
+        <v>15882</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>123132</v>
+        <v>15000</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>5877310.62</v>
+        <v>756.29</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>30882</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -463,25 +463,25 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>26</v>
@@ -490,57 +490,57 @@
         <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3">
-        <v>43553</v>
+        <v>43619</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>450000</v>
+        <v>90000</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>40909.09</v>
+        <v>8181.82</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>26</v>
@@ -549,57 +549,57 @@
         <v>26</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3">
-        <v>43551</v>
+        <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>89000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>6818.18</v>
+        <v>8181.82</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>26</v>
@@ -608,57 +608,57 @@
         <v>26</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3">
-        <v>43551</v>
+        <v>43619</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>8181.82</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M6" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>26</v>
@@ -667,24 +667,24 @@
         <v>26</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3">
-        <v>43551</v>
+        <v>43571</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>43636.36</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
@@ -696,113 +696,113 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3">
-        <v>43550</v>
+        <v>43557</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0</v>
+        <v>123423523</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0</v>
+        <v>123132</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0</v>
+        <v>5877310.62</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3">
-        <v>43550</v>
+        <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0</v>
+        <v>40909.09</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>0</v>
@@ -811,113 +811,113 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
-        <v>43550</v>
+        <v>43551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>6818.18</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>480000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
-        <v>43536</v>
+        <v>43551</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
@@ -929,54 +929,54 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3">
-        <v>43536</v>
+        <v>43551</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0</v>
@@ -988,54 +988,54 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3">
-        <v>43536</v>
+        <v>43550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0</v>
@@ -1044,60 +1044,60 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3">
-        <v>43529</v>
+        <v>43550</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>458000</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>41636.36</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0</v>
@@ -1106,57 +1106,57 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3">
-        <v>43529</v>
+        <v>43550</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>458000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>41636.36</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
@@ -1165,78 +1165,78 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43536</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>45800</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3">
-        <v>43529</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>458000</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>41636.36</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>4</v>
@@ -1245,33 +1245,33 @@
         <v>23</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3">
-        <v>43517</v>
+        <v>43536</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0</v>
@@ -1280,57 +1280,57 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3">
-        <v>43517</v>
+        <v>43536</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0</v>
@@ -1339,349 +1339,349 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3">
-        <v>43507</v>
+        <v>43529</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>35900</v>
+        <v>458000</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
+        <v>41636.36</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43529</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>458000</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>41636.36</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3">
-        <v>43507</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>450000</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>909.09</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3">
-        <v>43502</v>
+        <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>8750500</v>
+        <v>458000</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0</v>
+        <v>41636.36</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>416690.48</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>8765500</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>23</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43517</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="3">
-        <v>43502</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>8750500</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>416690.48</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>8765500</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M22" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43517</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="3">
-        <v>43502</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>8750500</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>416690.48</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>8765500</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M23" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3">
-        <v>43501</v>
+        <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0</v>
+        <v>35900</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
@@ -1693,60 +1693,60 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3">
-        <v>43501</v>
+        <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0</v>
+        <v>909.09</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>0</v>
@@ -1755,225 +1755,225 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>303</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3">
-        <v>43498</v>
+        <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0</v>
+        <v>8750500</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0</v>
+        <v>8765500</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43502</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>8750500</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>416690.48</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>8765500</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B27" s="3">
-        <v>43488</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3">
-        <v>43488</v>
+        <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0</v>
+        <v>8750500</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0</v>
+        <v>416690.48</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>24950000</v>
+        <v>8765500</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4589</v>
+        <v>23</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3">
-        <v>43474</v>
+        <v>43501</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0</v>
@@ -1988,706 +1988,706 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3">
-        <v>43452</v>
+        <v>43501</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>733000</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>56</v>
+        <v>303</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>43452</v>
+        <v>43498</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>583000</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>13636.36</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>733000</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>43451</v>
+        <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>180000</v>
+        <v>30000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>43451</v>
+        <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>180000</v>
+        <v>24950000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>123</v>
+        <v>4589</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3">
-        <v>43451</v>
+        <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>16363.64</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0</v>
+        <v>583000</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>16363.64</v>
+        <v>13636.36</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>180000</v>
+        <v>733000</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3">
-        <v>43447</v>
+        <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>568922</v>
+        <v>583000</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>22727.27</v>
+        <v>13636.36</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>818922</v>
+        <v>733000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3">
-        <v>43447</v>
+        <v>43451</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>818922</v>
+        <v>180000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3">
-        <v>43447</v>
+        <v>43451</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>568922</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>22727.27</v>
+        <v>16363.64</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>818922</v>
+        <v>180000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>-150000</v>
+        <v>180000</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0</v>
+        <v>16363.64</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>-150000</v>
+        <v>180000</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-107568</v>
+        <v>180000</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0</v>
+        <v>16363.64</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>-107568</v>
+        <v>180000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q40" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41" s="3">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>450000</v>
+        <v>568922</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>22727.27</v>
@@ -2696,234 +2696,234 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>700000</v>
+        <v>818922</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3">
-        <v>43439</v>
+        <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>256228</v>
+        <v>250000</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0</v>
+        <v>818922</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3">
-        <v>43439</v>
+        <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>6243370</v>
+        <v>250000</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0</v>
+        <v>568922</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0</v>
+        <v>22727.27</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0</v>
+        <v>818922</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B44" s="3">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>624470</v>
+        <v>-107568</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>56770</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0</v>
+        <v>-107568</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="3">
-        <v>43437</v>
+        <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>740000</v>
+        <v>450000</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>22727.27</v>
@@ -2932,402 +2932,402 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>250000</v>
+        <v>700000</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B46" s="3">
-        <v>43437</v>
+        <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>250000</v>
+        <v>-150000</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>22727.27</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>250000</v>
+        <v>-150000</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="1" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B47" s="3">
-        <v>43050</v>
+        <v>43439</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>78000</v>
+        <v>624470</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>7090.91</v>
+        <v>56770</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="1" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B48" s="3">
-        <v>43050</v>
+        <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>78000</v>
+        <v>256228</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="1" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3">
-        <v>43050</v>
+        <v>43439</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>78000</v>
+        <v>6243370</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>7090.91</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>43050</v>
+        <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0</v>
+        <v>740000</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>7090.91</v>
+        <v>22727.27</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>78000</v>
+        <v>250000</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3">
         <v>43050</v>
@@ -3351,16 +3351,16 @@
         <v>82</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>5</v>
@@ -3369,83 +3369,83 @@
         <v>56</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="1" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B53" s="3">
         <v>43050</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0</v>
+        <v>7090.91</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>265000</v>
+        <v>78000</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54" s="3">
         <v>43050</v>
@@ -3469,16 +3469,16 @@
         <v>82</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M54" s="2" t="n">
         <v>5</v>
@@ -3487,78 +3487,373 @@
         <v>56</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="1" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3">
         <v>43050</v>
       </c>
       <c r="C55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>265000</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C56" s="1" t="n">
         <v>78000</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="n">
+      <c r="D56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <v>7090.91</v>
       </c>
-      <c r="F55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="n">
+      <c r="F56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="n">
         <v>78000</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="I56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M55" s="2" t="n">
+      <c r="K56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N55" s="2" t="n">
+      <c r="N56" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="O55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R55" s="1" t="s">
+      <c r="O56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="P57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B58" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B59" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B60" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>7090.91</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -67,16 +67,458 @@
     <t>ORIGEN PAGO</t>
   </si>
   <si>
-    <t>TIPO</t>
+    <t>Flete</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Jose G</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>001-001-0001</t>
+  </si>
+  <si>
+    <t>Intesa</t>
+  </si>
+  <si>
+    <t>Pollpar Gerenciamiento Filtro Prensa</t>
+  </si>
+  <si>
+    <t>Corte y doblado de chapas</t>
+  </si>
+  <si>
+    <t>Plegados S.R.L.</t>
+  </si>
+  <si>
+    <t>001-001-0067911</t>
+  </si>
+  <si>
+    <t>Jose Guerrero</t>
+  </si>
+  <si>
+    <t>Consultoria</t>
+  </si>
+  <si>
+    <t>Prolean SA</t>
+  </si>
+  <si>
+    <t>001-001-0000005</t>
+  </si>
+  <si>
+    <t>Ing. Osorio</t>
+  </si>
+  <si>
+    <t>Tostadistas</t>
+  </si>
+  <si>
+    <t>PRV Stores Py S.A.</t>
+  </si>
+  <si>
+    <t>022-001-0055361</t>
+  </si>
+  <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>Varilla de 12, 10, 8, 6, 4,2</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>Ferropar S.A.</t>
+  </si>
+  <si>
+    <t>001-002-0015888</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Matiris tabletas</t>
+  </si>
+  <si>
+    <t>Combustible</t>
+  </si>
+  <si>
+    <t>GS Trading Import Export S.R.L.</t>
+  </si>
+  <si>
+    <t>002-005-0021529</t>
+  </si>
+  <si>
+    <t>Perfil planchuela 1/2x 3mm</t>
+  </si>
+  <si>
+    <t>Acomar S.A.</t>
+  </si>
+  <si>
+    <t>002-001-0080963</t>
+  </si>
+  <si>
+    <t>tornillo, etc</t>
+  </si>
+  <si>
+    <t>Alejandro Moises Aguilar Trigo</t>
+  </si>
+  <si>
+    <t>001-001-0017434</t>
+  </si>
+  <si>
+    <t>A2B SRL</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Trabajo de hojalateria</t>
+  </si>
+  <si>
+    <t>Marcos Augusto Nunez</t>
+  </si>
+  <si>
+    <t>001-001-0000429</t>
+  </si>
+  <si>
+    <t>Emiliano Medina</t>
+  </si>
+  <si>
+    <t>002-004-0001611</t>
+  </si>
+  <si>
+    <t>Autorroscante,etc</t>
+  </si>
+  <si>
+    <t>Lincoln S.A.</t>
+  </si>
+  <si>
+    <t>003-001-0251132</t>
+  </si>
+  <si>
+    <t>Cercado 15ml</t>
+  </si>
+  <si>
+    <t>Omar Augusto Nuñez Grance</t>
+  </si>
+  <si>
+    <t>001-001-0001920</t>
+  </si>
+  <si>
+    <t>Karen Sanabria</t>
+  </si>
+  <si>
+    <t>Sr. Ruiz</t>
+  </si>
+  <si>
+    <t>Tejido de alambre</t>
+  </si>
+  <si>
+    <t>CH lisa LAF 1,15 1220x 2400mm. etc</t>
+  </si>
+  <si>
+    <t>002-001-0080837</t>
+  </si>
+  <si>
+    <t>Cancela la factura Nro. 31916</t>
+  </si>
+  <si>
+    <t>RECIBO</t>
+  </si>
+  <si>
+    <t>Proyec S.A.E.</t>
+  </si>
+  <si>
+    <t>001-044461</t>
+  </si>
+  <si>
+    <t>Servicio de flete</t>
+  </si>
+  <si>
+    <t>Jose Luis Gonzalez Fromher</t>
+  </si>
+  <si>
+    <t>001-001-0001631</t>
+  </si>
+  <si>
+    <t>Arquitecto Richart Rios</t>
+  </si>
+  <si>
+    <t>Casa Silva</t>
+  </si>
+  <si>
+    <t>Trabajo metalurgico</t>
+  </si>
+  <si>
+    <t>Pedro Augusto Lopez</t>
+  </si>
+  <si>
+    <t>001-001-0000250</t>
+  </si>
+  <si>
+    <t>Autorización para realizar trabajos</t>
+  </si>
+  <si>
+    <t>COMP_INGRESO</t>
+  </si>
+  <si>
+    <t>Armada Paraguaya Prefectura General Naval</t>
+  </si>
+  <si>
+    <t>0064503</t>
+  </si>
+  <si>
+    <t>Jose L</t>
+  </si>
+  <si>
+    <t>TBN</t>
+  </si>
+  <si>
+    <t>Don Kasbergen</t>
+  </si>
+  <si>
+    <t>Electrodo</t>
+  </si>
+  <si>
+    <t>001-001-0017401</t>
+  </si>
+  <si>
+    <t>Bastidor, Tablon, Barra</t>
+  </si>
+  <si>
+    <t>001-001-0031916</t>
+  </si>
+  <si>
+    <t>Canaleta - Fapasa</t>
+  </si>
+  <si>
+    <t>Cano reedondo 2''x 2mm</t>
+  </si>
+  <si>
+    <t>Elin Aceros y Aleaciones S.A.</t>
+  </si>
+  <si>
+    <t>006-002-0199618</t>
+  </si>
+  <si>
+    <t>Agua mineral de 20 lts</t>
+  </si>
+  <si>
+    <t>Federico Jose Jimenez Aguilera</t>
+  </si>
+  <si>
+    <t>001-005-0000104</t>
+  </si>
+  <si>
+    <t>Caja de paso, etc</t>
+  </si>
+  <si>
+    <t>Electropar S.A.</t>
+  </si>
+  <si>
+    <t>001-007-0025295</t>
+  </si>
+  <si>
+    <t>Esta. Servicios Alpina S.A.</t>
+  </si>
+  <si>
+    <t>003-001-0010398</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Cancela la factura Nro. 1088</t>
+  </si>
+  <si>
+    <t>MV Aceros S.A.</t>
+  </si>
+  <si>
+    <t>005-001-0000104</t>
+  </si>
+  <si>
+    <t>Marcos Rolando Artecona Gryciuk</t>
+  </si>
+  <si>
+    <t>001-001-0000272</t>
+  </si>
+  <si>
+    <t>Gabana S.A.</t>
+  </si>
+  <si>
+    <t>011-001-0036654</t>
+  </si>
+  <si>
+    <t>Ing. Calros</t>
+  </si>
+  <si>
+    <t>Marcial Delgado</t>
+  </si>
+  <si>
+    <t>Troche</t>
+  </si>
+  <si>
+    <t>Trabajo parte electrica</t>
+  </si>
+  <si>
+    <t>Miguel Angel Taboada Campuzano</t>
+  </si>
+  <si>
+    <t>001-001-0001229</t>
+  </si>
+  <si>
+    <t>Electrodos ITA weld</t>
+  </si>
+  <si>
+    <t>Itarendy S.A.</t>
+  </si>
+  <si>
+    <t>003-001-0057613</t>
+  </si>
+  <si>
+    <t>Corpasa</t>
+  </si>
+  <si>
+    <t>Ductos de gases de escape digestores a Intercambiadores</t>
+  </si>
+  <si>
+    <t>Flap , disco</t>
+  </si>
+  <si>
+    <t>006-001-0350202</t>
+  </si>
+  <si>
+    <t>Carlos Maldonado</t>
+  </si>
+  <si>
+    <t>Ciclon</t>
+  </si>
+  <si>
+    <t>Cinta de aluminio, etc</t>
+  </si>
+  <si>
+    <t>Petersen Industria &amp; Hogar S.A.</t>
+  </si>
+  <si>
+    <t>003-001-0098750</t>
+  </si>
+  <si>
+    <t>Pechugon</t>
+  </si>
+  <si>
+    <t>Reparacion y montaje de hielera y chiller</t>
+  </si>
+  <si>
+    <t>Proyectos de Ingenieria y Consultoria</t>
+  </si>
+  <si>
+    <t>001-001-0000004</t>
+  </si>
+  <si>
+    <t>001-001-0000003</t>
+  </si>
+  <si>
+    <t>Tapiracuai S.A.</t>
+  </si>
+  <si>
+    <t>008-001-0019135</t>
+  </si>
+  <si>
+    <t>Cancela la factura Nro. 275502</t>
+  </si>
+  <si>
+    <t>Servifacil S.R.L.</t>
+  </si>
+  <si>
+    <t>75505</t>
+  </si>
+  <si>
+    <t>Tuerca, etc</t>
+  </si>
+  <si>
+    <t>La Casa de las Mangueras S.A.</t>
+  </si>
+  <si>
+    <t>001-001-0127710</t>
+  </si>
+  <si>
+    <t>Jose Lopez</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>Mantenimiento varios, etc</t>
+  </si>
+  <si>
+    <t>Gerardo Martinez Candia</t>
+  </si>
+  <si>
+    <t>001-001-0000612</t>
+  </si>
+  <si>
+    <t>Reparacion de motor, etc</t>
+  </si>
+  <si>
+    <t>001-001-0000611</t>
+  </si>
+  <si>
+    <t>Taco metal AME 5/16, etc</t>
+  </si>
+  <si>
+    <t>006-001-0347308</t>
+  </si>
+  <si>
+    <t>Trabajo electrico</t>
+  </si>
+  <si>
+    <t>EL SHAH S.A.</t>
+  </si>
+  <si>
+    <t>004-003-0039290</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Cuota Social</t>
+  </si>
+  <si>
+    <t>Union Industrial Paraguaya</t>
+  </si>
+  <si>
+    <t>003-001-0009414</t>
+  </si>
+  <si>
+    <t>Karen S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
     <numFmt formatCode="#,##0; (#,##0); -" numFmtId="165"/>
+    <numFmt formatCode="[$-409]dd/mm/yyyy" numFmtId="166"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -103,23 +545,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="166"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -174,8 +617,2413 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="n">
+        <v>2587</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43628</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>9090.91</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43624</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>9090.91</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>18181.82</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="n">
+        <v>2580</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>6800000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>618181.82</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="n">
+        <v>2521</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>5900</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>536.36</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="n">
+        <v>2524</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>17837620</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1621601.82</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="n">
+        <v>2520</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>463.64</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="n">
+        <v>2519</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>21066</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1915.09</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>21066</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="n">
+        <v>2523</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>3272.73</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>36000</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>190909.09</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="n">
+        <v>2522</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="n">
+        <v>2504</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>252225</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>22929.55</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>252225</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="n">
+        <v>2508</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>370005</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>33636.82</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>370005</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>394</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="n">
+        <v>2492</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>855269</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>77751.73</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>855269</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>570000</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>51818.18</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>570000</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1818181.82</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="n">
+        <v>2502</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>252225</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>22929.55</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>252225</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>38000</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43615</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>2727.27</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="n">
+        <v>2482</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>4545.45</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="n">
+        <v>2486</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>89373</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>8124.82</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>89373</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="n">
+        <v>2477</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1818.18</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="n">
+        <v>2480</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>125937</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>11448.82</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>125937</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="n">
+        <v>2479</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>3643640</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>9227000</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>838818.18</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>9227000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="n">
+        <v>2470</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>120909.09</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="n">
+        <v>2473</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>135000</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>12272.73</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>135000</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="n">
+        <v>2467</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>830550</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>75504.55</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>830550</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>343</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>217248</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>19749.82</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="n">
+        <v>2578</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43612</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>636363.64</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1" t="n">
+        <v>2577</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43609</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>6200000</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>563636.36</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1" t="n">
+        <v>2534</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43607</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1" t="n">
+        <v>2535</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43606</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>247860</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43602</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>675000</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>61363.64</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>675000</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>406</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="n">
+        <v>2561</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43601</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>8230000</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>748181.82</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="n">
+        <v>2559</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43596</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1136363.64</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1" t="n">
+        <v>2533</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43592</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>2950</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>268.18</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>2950</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1" t="n">
+        <v>2566</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43592</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43591</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -100,6 +100,93 @@
     <t>Pollpar Gerenciamiento Filtro Prensa</t>
   </si>
   <si>
+    <t>Tostadistas</t>
+  </si>
+  <si>
+    <t>PRV Stores Py S.A.</t>
+  </si>
+  <si>
+    <t>022-001-0055361</t>
+  </si>
+  <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>Varilla de 12, 10, 8, 6, 4,2</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>Ferropar S.A.</t>
+  </si>
+  <si>
+    <t>001-002-0015888</t>
+  </si>
+  <si>
+    <t>Ing. Osorio</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Matiris tabletas</t>
+  </si>
+  <si>
+    <t>Combustible</t>
+  </si>
+  <si>
+    <t>GS Trading Import Export S.R.L.</t>
+  </si>
+  <si>
+    <t>002-005-0021529</t>
+  </si>
+  <si>
+    <t>Perfil planchuela 1/2x 3mm</t>
+  </si>
+  <si>
+    <t>Acomar S.A.</t>
+  </si>
+  <si>
+    <t>002-001-0080963</t>
+  </si>
+  <si>
+    <t>Jose Guerrero</t>
+  </si>
+  <si>
+    <t>tornillo, etc</t>
+  </si>
+  <si>
+    <t>Alejandro Moises Aguilar Trigo</t>
+  </si>
+  <si>
+    <t>001-001-0017434</t>
+  </si>
+  <si>
+    <t>A2B SRL</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Trabajo de hojalateria</t>
+  </si>
+  <si>
+    <t>Marcos Augusto Nunez</t>
+  </si>
+  <si>
+    <t>001-001-0000429</t>
+  </si>
+  <si>
+    <t>Emiliano Medina</t>
+  </si>
+  <si>
+    <t>002-004-0001611</t>
+  </si>
+  <si>
     <t>Corte y doblado de chapas</t>
   </si>
   <si>
@@ -109,9 +196,6 @@
     <t>001-001-0067911</t>
   </si>
   <si>
-    <t>Jose Guerrero</t>
-  </si>
-  <si>
     <t>Consultoria</t>
   </si>
   <si>
@@ -119,90 +203,6 @@
   </si>
   <si>
     <t>001-001-0000005</t>
-  </si>
-  <si>
-    <t>Ing. Osorio</t>
-  </si>
-  <si>
-    <t>Tostadistas</t>
-  </si>
-  <si>
-    <t>PRV Stores Py S.A.</t>
-  </si>
-  <si>
-    <t>022-001-0055361</t>
-  </si>
-  <si>
-    <t>Oscar Gonzalez</t>
-  </si>
-  <si>
-    <t>Varilla de 12, 10, 8, 6, 4,2</t>
-  </si>
-  <si>
-    <t>CREDITO</t>
-  </si>
-  <si>
-    <t>Ferropar S.A.</t>
-  </si>
-  <si>
-    <t>001-002-0015888</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Produccion</t>
-  </si>
-  <si>
-    <t>Matiris tabletas</t>
-  </si>
-  <si>
-    <t>Combustible</t>
-  </si>
-  <si>
-    <t>GS Trading Import Export S.R.L.</t>
-  </si>
-  <si>
-    <t>002-005-0021529</t>
-  </si>
-  <si>
-    <t>Perfil planchuela 1/2x 3mm</t>
-  </si>
-  <si>
-    <t>Acomar S.A.</t>
-  </si>
-  <si>
-    <t>002-001-0080963</t>
-  </si>
-  <si>
-    <t>tornillo, etc</t>
-  </si>
-  <si>
-    <t>Alejandro Moises Aguilar Trigo</t>
-  </si>
-  <si>
-    <t>001-001-0017434</t>
-  </si>
-  <si>
-    <t>A2B SRL</t>
-  </si>
-  <si>
-    <t>Sucre</t>
-  </si>
-  <si>
-    <t>Trabajo de hojalateria</t>
-  </si>
-  <si>
-    <t>Marcos Augusto Nunez</t>
-  </si>
-  <si>
-    <t>001-001-0000429</t>
-  </si>
-  <si>
-    <t>Emiliano Medina</t>
-  </si>
-  <si>
-    <t>002-004-0001611</t>
   </si>
   <si>
     <t>Autorroscante,etc</t>
@@ -732,25 +732,25 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="n">
-        <v>2514</v>
+        <v>2521</v>
       </c>
       <c r="B4" s="3">
         <v>43616</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>200000</v>
+        <v>5900</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>18181.82</v>
+        <v>536.36</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>29</v>
@@ -768,16 +768,16 @@
         <v>32</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>24</v>
@@ -788,19 +788,19 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="n">
-        <v>2580</v>
+        <v>2524</v>
       </c>
       <c r="B5" s="3">
         <v>43616</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>6800000</v>
+        <v>17837620</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>618181.82</v>
+        <v>1621601.82</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
@@ -812,28 +812,28 @@
         <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>24</v>
@@ -844,43 +844,43 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="n">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B6" s="3">
         <v>43616</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>5900</v>
+        <v>5100</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>536.36</v>
+        <v>463.64</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -900,19 +900,19 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="n">
-        <v>2524</v>
+        <v>2515</v>
       </c>
       <c r="B7" s="3">
         <v>43616</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>17837620</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1621601.82</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
@@ -924,28 +924,28 @@
         <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>24</v>
@@ -956,52 +956,52 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="n">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B8" s="3">
         <v>43616</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5100</v>
+        <v>21066</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>463.64</v>
+        <v>1915.09</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>5100</v>
+        <v>21066</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="M8" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>24</v>
@@ -1012,25 +1012,25 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="n">
-        <v>2515</v>
+        <v>2523</v>
       </c>
       <c r="B9" s="3">
         <v>43616</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0</v>
+        <v>3272.73</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>48</v>
@@ -1045,19 +1045,19 @@
         <v>50</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>24</v>
@@ -1068,40 +1068,40 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="n">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B10" s="3">
         <v>43616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>21066</v>
+        <v>2100000</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1915.09</v>
+        <v>190909.09</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>21066</v>
+        <v>2100000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
@@ -1124,52 +1124,52 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="n">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B11" s="3">
         <v>43616</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>3272.73</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>24</v>
@@ -1180,40 +1180,40 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="n">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="B12" s="3">
         <v>43616</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>2100000</v>
+        <v>200000</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>190909.09</v>
+        <v>18181.82</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2100000</v>
+        <v>200000</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
@@ -1236,19 +1236,19 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="n">
-        <v>2522</v>
+        <v>2580</v>
       </c>
       <c r="B13" s="3">
         <v>43616</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0</v>
+        <v>6800000</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0</v>
+        <v>618181.82</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>19</v>
@@ -1269,7 +1269,7 @@
         <v>63</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>4</v>
@@ -1325,7 +1325,7 @@
         <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
@@ -1431,13 +1431,13 @@
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>81</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>86</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>4</v>
@@ -1661,7 +1661,7 @@
         <v>66</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>1</v>
@@ -1767,13 +1767,13 @@
         <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>1</v>
@@ -1782,10 +1782,10 @@
         <v>369</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>24</v>
@@ -1820,7 +1820,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>77</v>
@@ -1829,7 +1829,7 @@
         <v>97</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>101</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>1</v>
@@ -1894,10 +1894,10 @@
         <v>369</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>24</v>
@@ -1941,7 +1941,7 @@
         <v>104</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>2</v>
@@ -1997,7 +1997,7 @@
         <v>107</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>1</v>
@@ -2006,10 +2006,10 @@
         <v>369</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>24</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>19</v>
@@ -2053,7 +2053,7 @@
         <v>109</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>4</v>
@@ -2109,7 +2109,7 @@
         <v>113</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>115</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         <v>100000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>19</v>
@@ -2277,7 +2277,7 @@
         <v>123</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>4</v>
@@ -2445,7 +2445,7 @@
         <v>135</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>1</v>
@@ -2495,13 +2495,13 @@
         <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>139</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>4</v>
@@ -2545,19 +2545,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>140</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>4</v>
@@ -2613,7 +2613,7 @@
         <v>142</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>4</v>
@@ -2669,7 +2669,7 @@
         <v>145</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>153</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>4</v>
@@ -2837,7 +2837,7 @@
         <v>155</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>4</v>
@@ -2893,7 +2893,7 @@
         <v>157</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>100000</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>19</v>
@@ -2996,7 +2996,7 @@
         <v>162</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>163</v>

--- a/Listado_GASTOS.xlsx
+++ b/Listado_GASTOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -73,22 +73,28 @@
     <t>CONTADO</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Jose G</t>
+  </si>
+  <si>
+    <t>Huidobro</t>
+  </si>
+  <si>
+    <t>Reparacion de pala retro excavadora</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Sin Nombre</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Jose G</t>
-  </si>
-  <si>
     <t>Marcial Delgado</t>
   </si>
   <si>
     <t>Troche</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Flete</t>
@@ -145,7 +151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -209,25 +215,25 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="n">
-        <v>2599</v>
+        <v>2669</v>
       </c>
       <c r="B2" s="3">
-        <v>43634</v>
+        <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>9090.91</v>
+        <v>1818.18</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -236,39 +242,39 @@
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="n">
-        <v>2587</v>
+        <v>2599</v>
       </c>
       <c r="B3" s="3">
-        <v>43628</v>
+        <v>43634</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>100000</v>
@@ -286,45 +292,45 @@
         <v>100000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="n">
-        <v>2598</v>
+        <v>2587</v>
       </c>
       <c r="B4" s="3">
-        <v>43483</v>
+        <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>100000</v>
@@ -342,37 +348,93 @@
         <v>100000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="n">
+        <v>2598</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43483</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>9090.91</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>314</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>25</v>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
